--- a/support_docs/Neural_Net_Performance.xlsx
+++ b/support_docs/Neural_Net_Performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Brown\Desktop\Team5_FinalProject\support_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15F9828-1EC3-4E90-8530-1AC988D307C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E46CB8-43AF-456B-A845-8B80D1A8D598}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{069F6B91-0C53-4E7B-AEF6-9988D4EE306E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="6" xr2:uid="{069F6B91-0C53-4E7B-AEF6-9988D4EE306E}"/>
   </bookViews>
   <sheets>
     <sheet name="Model Optimization" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Plots" sheetId="3" r:id="rId5"/>
     <sheet name="SMOTE Comparison" sheetId="6" r:id="rId6"/>
     <sheet name="Optimizer" sheetId="7" r:id="rId7"/>
+    <sheet name="Results" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3067" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3102" uniqueCount="80">
   <si>
     <t>Layer 1</t>
   </si>
@@ -251,6 +252,36 @@
   <si>
     <t>precisionatrecall(0.85)</t>
   </si>
+  <si>
+    <t>dropID</t>
+  </si>
+  <si>
+    <t>Adadelta</t>
+  </si>
+  <si>
+    <t>running analysis test on smote data of 57048 data points</t>
+  </si>
+  <si>
+    <t>Neural Network</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>Total samples: 57048</t>
+  </si>
+  <si>
+    <t>True Positive: 27429</t>
+  </si>
+  <si>
+    <t>True Negative: 26457</t>
+  </si>
+  <si>
+    <t>False Positive: 2067</t>
+  </si>
+  <si>
+    <t>False Negative: 1095</t>
+  </si>
 </sst>
 </file>
 
@@ -259,7 +290,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +312,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -337,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -407,12 +444,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -427,6 +458,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3764,6 +3808,7 @@
         <c:axId val="1184438511"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4053,10 +4098,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>(Optimizer!$D$17,Optimizer!$D$19,Optimizer!$D$20:$D$21)</c:f>
+              <c:f>(Optimizer!$D$17,Optimizer!$D$19,Optimizer!$D$20:$D$21,Optimizer!$D$34)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>55</c:v>
                 </c:pt>
@@ -4069,15 +4114,18 @@
                 <c:pt idx="3">
                   <c:v>100</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>150</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>(Optimizer!$H$17,Optimizer!$H$19,Optimizer!$H$20:$H$21)</c:f>
+              <c:f>(Optimizer!$H$17,Optimizer!$H$19,Optimizer!$H$20:$H$21,Optimizer!$H$34)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0.25</c:v>
                 </c:pt>
@@ -4089,6 +4137,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4246,26 +4297,53 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Optimizer!$D$24</c:f>
+              <c:f>(Optimizer!$D$24,Optimizer!$D$27,Optimizer!$D$29)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Optimizer!$H$24</c:f>
+              <c:f>(Optimizer!$H$24,Optimizer!$H$27,Optimizer!$H$29)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4273,7 +4351,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-84B2-413B-B9F5-FA65485D8E82}"/>
+              <c16:uniqueId val="{00000002-9BB2-48D8-9ACF-C607CA4DC044}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4292,6 +4370,7 @@
         <c:axId val="1186267327"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4414,6 +4493,7 @@
         <c:axId val="695367599"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4539,6 +4619,10 @@
       <c:legendPos val="b"/>
       <c:legendEntry>
         <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
         <c:delete val="1"/>
       </c:legendEntry>
       <c:overlay val="0"/>
@@ -8705,16 +8789,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>545647</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>67808</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>171905</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>143100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>240847</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>90033</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>506640</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>165325</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8741,16 +8825,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>567644</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>10657</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>142648</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>126772</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>262844</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>51253</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>477383</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>173717</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8830,7 +8914,7 @@
       <xdr:col>36</xdr:col>
       <xdr:colOff>37486</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>50704</xdr:rowOff>
+      <xdr:rowOff>47529</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8872,7 +8956,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>297118</xdr:colOff>
+      <xdr:colOff>293943</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>18912</xdr:rowOff>
     </xdr:to>
@@ -9210,7 +9294,7 @@
   <dimension ref="A3:AD210"/>
   <sheetViews>
     <sheetView topLeftCell="P7" workbookViewId="0">
-      <pane ySplit="1440" topLeftCell="A40" activePane="bottomLeft"/>
+      <pane ySplit="2030" topLeftCell="A40" activePane="bottomLeft"/>
       <selection activeCell="U3" sqref="U3:AD3"/>
       <selection pane="bottomLeft" activeCell="AA46" sqref="AA46"/>
     </sheetView>
@@ -9232,10 +9316,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="R3" s="27" t="s">
+      <c r="R3" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="27"/>
+      <c r="S3" s="37"/>
       <c r="U3" s="2" t="s">
         <v>25</v>
       </c>
@@ -24453,19 +24537,19 @@
         <v>543</v>
       </c>
       <c r="AA186" s="24">
-        <f t="shared" ref="AA186:AA210" si="34">(W186+X186)/V186</f>
+        <f t="shared" ref="AA186:AA206" si="34">(W186+X186)/V186</f>
         <v>0.98121904237754543</v>
       </c>
       <c r="AB186" s="24">
-        <f t="shared" ref="AB186:AB210" si="35">IF(AND(W186=0, Y186=0),0,(W186/(W186+Y186)))</f>
+        <f t="shared" ref="AB186:AB206" si="35">IF(AND(W186=0, Y186=0),0,(W186/(W186+Y186)))</f>
         <v>0.625</v>
       </c>
       <c r="AC186" s="24">
-        <f t="shared" ref="AC186:AC210" si="36">(W186/(W186+Z186))</f>
+        <f t="shared" ref="AC186:AC206" si="36">(W186/(W186+Z186))</f>
         <v>9.1240875912408752E-3</v>
       </c>
       <c r="AD186" s="24">
-        <f t="shared" ref="AD186:AD210" si="37">IF(AND(AB186=0,AC186=0),0,2*(AB186*AC186)/(AB186+AC186))</f>
+        <f t="shared" ref="AD186:AD206" si="37">IF(AND(AB186=0,AC186=0),0,2*(AB186*AC186)/(AB186+AC186))</f>
         <v>1.798561151079137E-2</v>
       </c>
     </row>
@@ -25913,8 +25997,8 @@
         <v>5.9113300492610842E-2</v>
       </c>
     </row>
-    <row r="206" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="29" t="s">
+    <row r="206" spans="1:30" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="27" t="s">
         <v>59</v>
       </c>
       <c r="B206" s="3">
@@ -25967,43 +26051,43 @@
       </c>
       <c r="R206" s="3"/>
       <c r="S206" s="3"/>
-      <c r="T206" s="30"/>
+      <c r="T206" s="28"/>
       <c r="U206" s="3"/>
       <c r="V206" s="3">
         <f>SUM(W206:Z206)</f>
         <v>29072</v>
       </c>
-      <c r="W206" s="29">
+      <c r="W206" s="27">
         <v>382</v>
       </c>
-      <c r="X206" s="29">
+      <c r="X206" s="27">
         <v>24837</v>
       </c>
-      <c r="Y206" s="29">
+      <c r="Y206" s="27">
         <v>3687</v>
       </c>
-      <c r="Z206" s="29">
+      <c r="Z206" s="27">
         <v>166</v>
       </c>
-      <c r="AA206" s="31">
+      <c r="AA206" s="29">
         <f t="shared" si="34"/>
         <v>0.86746697853604848</v>
       </c>
-      <c r="AB206" s="31">
+      <c r="AB206" s="29">
         <f t="shared" si="35"/>
         <v>9.3880560334234461E-2</v>
       </c>
-      <c r="AC206" s="31">
+      <c r="AC206" s="29">
         <f t="shared" si="36"/>
         <v>0.6970802919708029</v>
       </c>
-      <c r="AD206" s="31">
+      <c r="AD206" s="29">
         <f t="shared" si="37"/>
         <v>0.16547541693740525</v>
       </c>
     </row>
-    <row r="207" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="29" t="s">
+    <row r="207" spans="1:30" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="27" t="s">
         <v>59</v>
       </c>
       <c r="B207" s="3">
@@ -26056,43 +26140,43 @@
       </c>
       <c r="R207" s="3"/>
       <c r="S207" s="3"/>
-      <c r="T207" s="30"/>
+      <c r="T207" s="28"/>
       <c r="U207" s="3"/>
       <c r="V207" s="3">
         <f t="shared" ref="V207:V210" si="38">SUM(W207:Z207)</f>
         <v>29072</v>
       </c>
-      <c r="W207" s="29">
+      <c r="W207" s="27">
         <v>382</v>
       </c>
-      <c r="X207" s="29">
+      <c r="X207" s="27">
         <v>24837</v>
       </c>
-      <c r="Y207" s="29">
+      <c r="Y207" s="27">
         <v>3687</v>
       </c>
-      <c r="Z207" s="29">
+      <c r="Z207" s="27">
         <v>166</v>
       </c>
-      <c r="AA207" s="31">
+      <c r="AA207" s="29">
         <f t="shared" ref="AA207:AA210" si="39">(W207+X207)/V207</f>
         <v>0.86746697853604848</v>
       </c>
-      <c r="AB207" s="31">
+      <c r="AB207" s="29">
         <f t="shared" ref="AB207:AB210" si="40">IF(AND(W207=0, Y207=0),0,(W207/(W207+Y207)))</f>
         <v>9.3880560334234461E-2</v>
       </c>
-      <c r="AC207" s="31">
+      <c r="AC207" s="29">
         <f t="shared" ref="AC207:AC210" si="41">(W207/(W207+Z207))</f>
         <v>0.6970802919708029</v>
       </c>
-      <c r="AD207" s="31">
+      <c r="AD207" s="29">
         <f t="shared" ref="AD207:AD210" si="42">IF(AND(AB207=0,AC207=0),0,2*(AB207*AC207)/(AB207+AC207))</f>
         <v>0.16547541693740525</v>
       </c>
     </row>
-    <row r="208" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="29" t="s">
+    <row r="208" spans="1:30" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="27" t="s">
         <v>59</v>
       </c>
       <c r="B208" s="3">
@@ -26145,43 +26229,43 @@
       </c>
       <c r="R208" s="3"/>
       <c r="S208" s="3"/>
-      <c r="T208" s="30"/>
+      <c r="T208" s="28"/>
       <c r="U208" s="3"/>
       <c r="V208" s="3">
         <f t="shared" si="38"/>
         <v>29072</v>
       </c>
-      <c r="W208" s="29">
+      <c r="W208" s="27">
         <v>382</v>
       </c>
-      <c r="X208" s="29">
+      <c r="X208" s="27">
         <v>24837</v>
       </c>
-      <c r="Y208" s="29">
+      <c r="Y208" s="27">
         <v>3687</v>
       </c>
-      <c r="Z208" s="29">
+      <c r="Z208" s="27">
         <v>166</v>
       </c>
-      <c r="AA208" s="31">
+      <c r="AA208" s="29">
         <f t="shared" si="39"/>
         <v>0.86746697853604848</v>
       </c>
-      <c r="AB208" s="31">
+      <c r="AB208" s="29">
         <f t="shared" si="40"/>
         <v>9.3880560334234461E-2</v>
       </c>
-      <c r="AC208" s="31">
+      <c r="AC208" s="29">
         <f t="shared" si="41"/>
         <v>0.6970802919708029</v>
       </c>
-      <c r="AD208" s="31">
+      <c r="AD208" s="29">
         <f t="shared" si="42"/>
         <v>0.16547541693740525</v>
       </c>
     </row>
-    <row r="209" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="29" t="s">
+    <row r="209" spans="1:30" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A209" s="27" t="s">
         <v>59</v>
       </c>
       <c r="B209" s="3">
@@ -26234,43 +26318,43 @@
       </c>
       <c r="R209" s="3"/>
       <c r="S209" s="3"/>
-      <c r="T209" s="30"/>
+      <c r="T209" s="28"/>
       <c r="U209" s="3"/>
       <c r="V209" s="3">
         <f t="shared" si="38"/>
         <v>29072</v>
       </c>
-      <c r="W209" s="29">
+      <c r="W209" s="27">
         <v>382</v>
       </c>
-      <c r="X209" s="29">
+      <c r="X209" s="27">
         <v>24837</v>
       </c>
-      <c r="Y209" s="29">
+      <c r="Y209" s="27">
         <v>3687</v>
       </c>
-      <c r="Z209" s="29">
+      <c r="Z209" s="27">
         <v>166</v>
       </c>
-      <c r="AA209" s="31">
+      <c r="AA209" s="29">
         <f t="shared" si="39"/>
         <v>0.86746697853604848</v>
       </c>
-      <c r="AB209" s="31">
+      <c r="AB209" s="29">
         <f t="shared" si="40"/>
         <v>9.3880560334234461E-2</v>
       </c>
-      <c r="AC209" s="31">
+      <c r="AC209" s="29">
         <f t="shared" si="41"/>
         <v>0.6970802919708029</v>
       </c>
-      <c r="AD209" s="31">
+      <c r="AD209" s="29">
         <f t="shared" si="42"/>
         <v>0.16547541693740525</v>
       </c>
     </row>
-    <row r="210" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="29" t="s">
+    <row r="210" spans="1:30" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A210" s="27" t="s">
         <v>59</v>
       </c>
       <c r="B210" s="3">
@@ -26323,37 +26407,37 @@
       </c>
       <c r="R210" s="3"/>
       <c r="S210" s="3"/>
-      <c r="T210" s="30"/>
+      <c r="T210" s="28"/>
       <c r="U210" s="3"/>
       <c r="V210" s="3">
         <f t="shared" si="38"/>
         <v>29072</v>
       </c>
-      <c r="W210" s="29">
+      <c r="W210" s="27">
         <v>382</v>
       </c>
-      <c r="X210" s="29">
+      <c r="X210" s="27">
         <v>24837</v>
       </c>
-      <c r="Y210" s="29">
+      <c r="Y210" s="27">
         <v>3687</v>
       </c>
-      <c r="Z210" s="29">
+      <c r="Z210" s="27">
         <v>166</v>
       </c>
-      <c r="AA210" s="31">
+      <c r="AA210" s="29">
         <f t="shared" si="39"/>
         <v>0.86746697853604848</v>
       </c>
-      <c r="AB210" s="31">
+      <c r="AB210" s="29">
         <f t="shared" si="40"/>
         <v>9.3880560334234461E-2</v>
       </c>
-      <c r="AC210" s="31">
+      <c r="AC210" s="29">
         <f t="shared" si="41"/>
         <v>0.6970802919708029</v>
       </c>
-      <c r="AD210" s="31">
+      <c r="AD210" s="29">
         <f t="shared" si="42"/>
         <v>0.16547541693740525</v>
       </c>
@@ -26380,22 +26464,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
     </row>
     <row r="3" spans="3:10" x14ac:dyDescent="0.35">
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28" t="s">
+      <c r="G3" s="38"/>
+      <c r="H3" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="28"/>
+      <c r="I3" s="38"/>
     </row>
     <row r="4" spans="3:10" x14ac:dyDescent="0.35">
       <c r="C4" s="7" t="s">
@@ -28832,19 +28916,19 @@
       <c r="Z26" s="9">
         <v>383</v>
       </c>
-      <c r="AA26" s="32">
+      <c r="AA26" s="30">
         <f t="shared" si="1"/>
         <v>0.97994634012107873</v>
       </c>
-      <c r="AB26" s="32">
+      <c r="AB26" s="30">
         <f t="shared" si="2"/>
         <v>0.45205479452054792</v>
       </c>
-      <c r="AC26" s="32">
+      <c r="AC26" s="30">
         <f t="shared" si="3"/>
         <v>0.3010948905109489</v>
       </c>
-      <c r="AD26" s="32">
+      <c r="AD26" s="30">
         <f t="shared" si="4"/>
         <v>0.36144578313253012</v>
       </c>
@@ -28922,19 +29006,19 @@
       <c r="Z27" s="9">
         <v>376</v>
       </c>
-      <c r="AA27" s="32">
+      <c r="AA27" s="30">
         <f t="shared" si="1"/>
         <v>0.9828357182168409</v>
       </c>
-      <c r="AB27" s="32">
+      <c r="AB27" s="30">
         <f t="shared" si="2"/>
         <v>0.58305084745762714</v>
       </c>
-      <c r="AC27" s="32">
+      <c r="AC27" s="30">
         <f t="shared" si="3"/>
         <v>0.31386861313868614</v>
       </c>
-      <c r="AD27" s="32">
+      <c r="AD27" s="30">
         <f t="shared" si="4"/>
         <v>0.4080664294187426</v>
       </c>
@@ -29012,19 +29096,19 @@
       <c r="Z28" s="9">
         <v>371</v>
       </c>
-      <c r="AA28" s="32">
+      <c r="AA28" s="30">
         <f t="shared" si="1"/>
         <v>0.9811846450192625</v>
       </c>
-      <c r="AB28" s="32">
+      <c r="AB28" s="30">
         <f t="shared" si="2"/>
         <v>0.50141643059490082</v>
       </c>
-      <c r="AC28" s="32">
+      <c r="AC28" s="30">
         <f t="shared" si="3"/>
         <v>0.32299270072992703</v>
       </c>
-      <c r="AD28" s="32">
+      <c r="AD28" s="30">
         <f t="shared" si="4"/>
         <v>0.39289678135405109</v>
       </c>
@@ -29102,19 +29186,19 @@
       <c r="Z29" s="9">
         <v>384</v>
       </c>
-      <c r="AA29" s="32">
+      <c r="AA29" s="30">
         <f t="shared" si="1"/>
         <v>0.97888002201430935</v>
       </c>
-      <c r="AB29" s="32">
+      <c r="AB29" s="30">
         <f t="shared" si="2"/>
         <v>0.41624365482233505</v>
       </c>
-      <c r="AC29" s="32">
+      <c r="AC29" s="30">
         <f t="shared" si="3"/>
         <v>0.29927007299270075</v>
       </c>
-      <c r="AD29" s="32">
+      <c r="AD29" s="30">
         <f t="shared" si="4"/>
         <v>0.34819532908704887</v>
       </c>
@@ -29192,19 +29276,19 @@
       <c r="Z30" s="9">
         <v>362</v>
       </c>
-      <c r="AA30" s="32">
+      <c r="AA30" s="30">
         <f t="shared" si="1"/>
         <v>0.9811846450192625</v>
       </c>
-      <c r="AB30" s="32">
+      <c r="AB30" s="30">
         <f t="shared" si="2"/>
         <v>0.50134770889487867</v>
       </c>
-      <c r="AC30" s="32">
+      <c r="AC30" s="30">
         <f t="shared" si="3"/>
         <v>0.33941605839416056</v>
       </c>
-      <c r="AD30" s="32">
+      <c r="AD30" s="30">
         <f t="shared" si="4"/>
         <v>0.4047878128400435</v>
       </c>
@@ -29282,19 +29366,19 @@
       <c r="Z31" s="9">
         <v>374</v>
       </c>
-      <c r="AA31" s="32">
+      <c r="AA31" s="30">
         <f t="shared" si="1"/>
         <v>0.97998073747936154</v>
       </c>
-      <c r="AB31" s="32">
+      <c r="AB31" s="30">
         <f t="shared" si="2"/>
         <v>0.45549738219895286</v>
       </c>
-      <c r="AC31" s="32">
+      <c r="AC31" s="30">
         <f t="shared" si="3"/>
         <v>0.31751824817518248</v>
       </c>
-      <c r="AD31" s="32">
+      <c r="AD31" s="30">
         <f t="shared" si="4"/>
         <v>0.37419354838709679</v>
       </c>
@@ -29372,19 +29456,19 @@
       <c r="Z32" s="9">
         <v>349</v>
       </c>
-      <c r="AA32" s="32">
+      <c r="AA32" s="30">
         <f t="shared" si="1"/>
         <v>0.97894881673087508</v>
       </c>
-      <c r="AB32" s="32">
+      <c r="AB32" s="30">
         <f t="shared" si="2"/>
         <v>0.43073593073593075</v>
       </c>
-      <c r="AC32" s="32">
+      <c r="AC32" s="30">
         <f t="shared" si="3"/>
         <v>0.36313868613138683</v>
       </c>
-      <c r="AD32" s="32">
+      <c r="AD32" s="30">
         <f t="shared" si="4"/>
         <v>0.39405940594059402</v>
       </c>
@@ -29462,19 +29546,19 @@
       <c r="Z33" s="9">
         <v>380</v>
       </c>
-      <c r="AA33" s="32">
+      <c r="AA33" s="30">
         <f t="shared" si="1"/>
         <v>0.98290451293340675</v>
       </c>
-      <c r="AB33" s="32">
+      <c r="AB33" s="30">
         <f t="shared" si="2"/>
         <v>0.58947368421052626</v>
       </c>
-      <c r="AC33" s="32">
+      <c r="AC33" s="30">
         <f t="shared" si="3"/>
         <v>0.30656934306569344</v>
       </c>
-      <c r="AD33" s="32">
+      <c r="AD33" s="30">
         <f t="shared" si="4"/>
         <v>0.40336134453781519</v>
       </c>
@@ -29552,19 +29636,19 @@
       <c r="Z34" s="9">
         <v>347</v>
       </c>
-      <c r="AA34" s="32">
+      <c r="AA34" s="30">
         <f t="shared" si="1"/>
         <v>0.97702256466703352</v>
       </c>
-      <c r="AB34" s="32">
+      <c r="AB34" s="30">
         <f t="shared" si="2"/>
         <v>0.38505747126436779</v>
       </c>
-      <c r="AC34" s="32">
+      <c r="AC34" s="30">
         <f t="shared" si="3"/>
         <v>0.36678832116788324</v>
       </c>
-      <c r="AD34" s="32">
+      <c r="AD34" s="30">
         <f t="shared" si="4"/>
         <v>0.37570093457943926</v>
       </c>
@@ -29642,19 +29726,19 @@
       <c r="Z35" s="9">
         <v>422</v>
       </c>
-      <c r="AA35" s="32">
+      <c r="AA35" s="30">
         <f t="shared" si="1"/>
         <v>0.98231975784259773</v>
       </c>
-      <c r="AB35" s="32">
+      <c r="AB35" s="30">
         <f t="shared" si="2"/>
         <v>0.57798165137614677</v>
       </c>
-      <c r="AC35" s="32">
+      <c r="AC35" s="30">
         <f t="shared" si="3"/>
         <v>0.22992700729927007</v>
       </c>
-      <c r="AD35" s="32">
+      <c r="AD35" s="30">
         <f t="shared" si="4"/>
         <v>0.32898172323759789</v>
       </c>
@@ -29732,19 +29816,19 @@
       <c r="Z36" s="9">
         <v>417</v>
       </c>
-      <c r="AA36" s="32">
+      <c r="AA36" s="30">
         <f t="shared" si="1"/>
         <v>0.98311089708310406</v>
       </c>
-      <c r="AB36" s="32">
+      <c r="AB36" s="30">
         <f t="shared" si="2"/>
         <v>0.63902439024390245</v>
       </c>
-      <c r="AC36" s="32">
+      <c r="AC36" s="30">
         <f t="shared" si="3"/>
         <v>0.23905109489051096</v>
       </c>
-      <c r="AD36" s="32">
+      <c r="AD36" s="30">
         <f t="shared" si="4"/>
         <v>0.34794156706507307</v>
       </c>
@@ -29822,19 +29906,19 @@
       <c r="Z37" s="9">
         <v>404</v>
       </c>
-      <c r="AA37" s="32">
+      <c r="AA37" s="30">
         <f t="shared" si="1"/>
         <v>0.98204457897633457</v>
       </c>
-      <c r="AB37" s="32">
+      <c r="AB37" s="30">
         <f t="shared" si="2"/>
         <v>0.54961832061068705</v>
       </c>
-      <c r="AC37" s="32">
+      <c r="AC37" s="30">
         <f t="shared" si="3"/>
         <v>0.26277372262773724</v>
       </c>
-      <c r="AD37" s="32">
+      <c r="AD37" s="30">
         <f t="shared" si="4"/>
         <v>0.35555555555555557</v>
       </c>
@@ -29912,19 +29996,19 @@
       <c r="Z38" s="9">
         <v>388</v>
       </c>
-      <c r="AA38" s="32">
+      <c r="AA38" s="30">
         <f t="shared" si="1"/>
         <v>0.9824573472757292</v>
       </c>
-      <c r="AB38" s="32">
+      <c r="AB38" s="30">
         <f t="shared" si="2"/>
         <v>0.56737588652482274</v>
       </c>
-      <c r="AC38" s="32">
+      <c r="AC38" s="30">
         <f t="shared" si="3"/>
         <v>0.29197080291970801</v>
       </c>
-      <c r="AD38" s="32">
+      <c r="AD38" s="30">
         <f t="shared" si="4"/>
         <v>0.38554216867469882</v>
       </c>
@@ -30002,19 +30086,19 @@
       <c r="Z39" s="9">
         <v>392</v>
       </c>
-      <c r="AA39" s="32">
+      <c r="AA39" s="30">
         <f t="shared" si="1"/>
         <v>0.98231975784259773</v>
       </c>
-      <c r="AB39" s="32">
+      <c r="AB39" s="30">
         <f t="shared" si="2"/>
         <v>0.5611510791366906</v>
       </c>
-      <c r="AC39" s="32">
+      <c r="AC39" s="30">
         <f t="shared" si="3"/>
         <v>0.28467153284671531</v>
       </c>
-      <c r="AD39" s="32">
+      <c r="AD39" s="30">
         <f t="shared" si="4"/>
         <v>0.37772397094430993</v>
       </c>
@@ -30092,19 +30176,19 @@
       <c r="Z40" s="9">
         <v>378</v>
       </c>
-      <c r="AA40" s="32">
+      <c r="AA40" s="30">
         <f t="shared" si="1"/>
         <v>0.97774490919097412</v>
       </c>
-      <c r="AB40" s="32">
+      <c r="AB40" s="30">
         <f t="shared" si="2"/>
         <v>0.38724373576309795</v>
       </c>
-      <c r="AC40" s="32">
+      <c r="AC40" s="30">
         <f t="shared" si="3"/>
         <v>0.31021897810218979</v>
       </c>
-      <c r="AD40" s="32">
+      <c r="AD40" s="30">
         <f t="shared" si="4"/>
         <v>0.34447821681864232</v>
       </c>
@@ -30182,19 +30266,19 @@
       <c r="Z41" s="9">
         <v>380</v>
       </c>
-      <c r="AA41" s="32">
+      <c r="AA41" s="30">
         <f t="shared" si="1"/>
         <v>0.98149422124380847</v>
       </c>
-      <c r="AB41" s="32">
+      <c r="AB41" s="30">
         <f t="shared" si="2"/>
         <v>0.51533742331288346</v>
       </c>
-      <c r="AC41" s="32">
+      <c r="AC41" s="30">
         <f t="shared" si="3"/>
         <v>0.30656934306569344</v>
       </c>
-      <c r="AD41" s="32">
+      <c r="AD41" s="30">
         <f t="shared" si="4"/>
         <v>0.38443935926773459</v>
       </c>
@@ -30272,19 +30356,19 @@
       <c r="Z42" s="9">
         <v>406</v>
       </c>
-      <c r="AA42" s="32">
+      <c r="AA42" s="30">
         <f t="shared" si="1"/>
         <v>0.98128783709411116</v>
       </c>
-      <c r="AB42" s="32">
+      <c r="AB42" s="30">
         <f t="shared" si="2"/>
         <v>0.50714285714285712</v>
       </c>
-      <c r="AC42" s="32">
+      <c r="AC42" s="30">
         <f t="shared" si="3"/>
         <v>0.25912408759124089</v>
       </c>
-      <c r="AD42" s="32">
+      <c r="AD42" s="30">
         <f t="shared" si="4"/>
         <v>0.34299516908212563</v>
       </c>
@@ -30362,19 +30446,19 @@
       <c r="Z43" s="9">
         <v>377</v>
       </c>
-      <c r="AA43" s="32">
+      <c r="AA43" s="30">
         <f t="shared" si="1"/>
         <v>0.98211337369290042</v>
       </c>
-      <c r="AB43" s="32">
+      <c r="AB43" s="30">
         <f t="shared" si="2"/>
         <v>0.54458598726114649</v>
       </c>
-      <c r="AC43" s="32">
+      <c r="AC43" s="30">
         <f t="shared" si="3"/>
         <v>0.31204379562043794</v>
       </c>
-      <c r="AD43" s="32">
+      <c r="AD43" s="30">
         <f t="shared" si="4"/>
         <v>0.39675174013921111</v>
       </c>
@@ -30452,19 +30536,19 @@
       <c r="Z44" s="9">
         <v>367</v>
       </c>
-      <c r="AA44" s="32">
+      <c r="AA44" s="30">
         <f t="shared" si="1"/>
         <v>0.98238855255916346</v>
       </c>
-      <c r="AB44" s="32">
+      <c r="AB44" s="30">
         <f t="shared" si="2"/>
         <v>0.55521472392638038</v>
       </c>
-      <c r="AC44" s="32">
+      <c r="AC44" s="30">
         <f t="shared" si="3"/>
         <v>0.33029197080291972</v>
       </c>
-      <c r="AD44" s="32">
+      <c r="AD44" s="30">
         <f t="shared" si="4"/>
         <v>0.41418764302059496</v>
       </c>
@@ -30542,19 +30626,19 @@
       <c r="Z45" s="9">
         <v>456</v>
       </c>
-      <c r="AA45" s="32">
+      <c r="AA45" s="30">
         <f t="shared" si="1"/>
         <v>0.98101265822784811</v>
       </c>
-      <c r="AB45" s="32">
+      <c r="AB45" s="30">
         <f t="shared" si="2"/>
         <v>0.48936170212765956</v>
       </c>
-      <c r="AC45" s="32">
+      <c r="AC45" s="30">
         <f t="shared" si="3"/>
         <v>0.16788321167883211</v>
       </c>
-      <c r="AD45" s="32">
+      <c r="AD45" s="30">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
@@ -30632,19 +30716,19 @@
       <c r="Z46" s="9">
         <v>60</v>
       </c>
-      <c r="AA46" s="32">
+      <c r="AA46" s="30">
         <f t="shared" si="1"/>
         <v>0.61891166758392957</v>
       </c>
-      <c r="AB46" s="32">
+      <c r="AB46" s="30">
         <f t="shared" si="2"/>
         <v>4.2408968453984529E-2</v>
       </c>
-      <c r="AC46" s="32">
+      <c r="AC46" s="30">
         <f t="shared" si="3"/>
         <v>0.89051094890510951</v>
       </c>
-      <c r="AD46" s="32">
+      <c r="AD46" s="30">
         <f t="shared" si="4"/>
         <v>8.0962256325176271E-2</v>
       </c>
@@ -30722,19 +30806,19 @@
       <c r="Z47" s="9">
         <v>55</v>
       </c>
-      <c r="AA47" s="32">
+      <c r="AA47" s="30">
         <f t="shared" si="1"/>
         <v>0.65279306549257021</v>
       </c>
-      <c r="AB47" s="32">
+      <c r="AB47" s="30">
         <f t="shared" si="2"/>
         <v>4.6809722749715156E-2</v>
       </c>
-      <c r="AC47" s="32">
+      <c r="AC47" s="30">
         <f t="shared" si="3"/>
         <v>0.89963503649635035</v>
       </c>
-      <c r="AD47" s="32">
+      <c r="AD47" s="30">
         <f t="shared" si="4"/>
         <v>8.8989169675090254E-2</v>
       </c>
@@ -30812,19 +30896,19 @@
       <c r="Z48" s="9">
         <v>94</v>
       </c>
-      <c r="AA48" s="32">
+      <c r="AA48" s="30">
         <f t="shared" si="1"/>
         <v>0.71040864061640063</v>
       </c>
-      <c r="AB48" s="32">
+      <c r="AB48" s="30">
         <f t="shared" si="2"/>
         <v>5.1714318259482854E-2</v>
       </c>
-      <c r="AC48" s="32">
+      <c r="AC48" s="30">
         <f t="shared" si="3"/>
         <v>0.82846715328467158</v>
       </c>
-      <c r="AD48" s="32">
+      <c r="AD48" s="30">
         <f t="shared" si="4"/>
         <v>9.7351774418355311E-2</v>
       </c>
@@ -30902,19 +30986,19 @@
       <c r="Z49" s="9">
         <v>74</v>
       </c>
-      <c r="AA49" s="32">
+      <c r="AA49" s="30">
         <f t="shared" si="1"/>
         <v>0.65416895982388557</v>
       </c>
-      <c r="AB49" s="32">
+      <c r="AB49" s="30">
         <f t="shared" si="2"/>
         <v>4.5341496078056244E-2</v>
       </c>
-      <c r="AC49" s="32">
+      <c r="AC49" s="30">
         <f t="shared" si="3"/>
         <v>0.86496350364963503</v>
       </c>
-      <c r="AD49" s="32">
+      <c r="AD49" s="30">
         <f t="shared" si="4"/>
         <v>8.6166151608798397E-2</v>
       </c>
@@ -30992,19 +31076,19 @@
       <c r="Z50" s="9">
         <v>54</v>
       </c>
-      <c r="AA50" s="32">
+      <c r="AA50" s="30">
         <f t="shared" si="1"/>
         <v>0.58379196477710515</v>
       </c>
-      <c r="AB50" s="32">
+      <c r="AB50" s="30">
         <f t="shared" si="2"/>
         <v>3.9393939393939391E-2</v>
       </c>
-      <c r="AC50" s="32">
+      <c r="AC50" s="30">
         <f t="shared" si="3"/>
         <v>0.90145985401459849</v>
       </c>
-      <c r="AD50" s="32">
+      <c r="AD50" s="30">
         <f t="shared" si="4"/>
         <v>7.5488997555012219E-2</v>
       </c>
@@ -31082,19 +31166,19 @@
       <c r="Z51" s="9">
         <v>54</v>
       </c>
-      <c r="AA51" s="32">
+      <c r="AA51" s="30">
         <f t="shared" si="1"/>
         <v>0.60188497523390205</v>
       </c>
-      <c r="AB51" s="32">
+      <c r="AB51" s="30">
         <f t="shared" si="2"/>
         <v>4.111869485600133E-2</v>
       </c>
-      <c r="AC51" s="32">
+      <c r="AC51" s="30">
         <f t="shared" si="3"/>
         <v>0.90145985401459849</v>
       </c>
-      <c r="AD51" s="32">
+      <c r="AD51" s="30">
         <f t="shared" si="4"/>
         <v>7.8649896513294057E-2</v>
       </c>
@@ -31172,19 +31256,19 @@
       <c r="Z52" s="9">
         <v>51</v>
       </c>
-      <c r="AA52" s="32">
+      <c r="AA52" s="30">
         <f t="shared" si="1"/>
         <v>0.61598789212988447</v>
       </c>
-      <c r="AB52" s="32">
+      <c r="AB52" s="30">
         <f t="shared" si="2"/>
         <v>4.2807924203273041E-2</v>
       </c>
-      <c r="AC52" s="32">
+      <c r="AC52" s="30">
         <f t="shared" si="3"/>
         <v>0.90693430656934304</v>
       </c>
-      <c r="AD52" s="32">
+      <c r="AD52" s="30">
         <f t="shared" si="4"/>
         <v>8.175686790590557E-2</v>
       </c>
@@ -31262,19 +31346,19 @@
       <c r="Z53" s="9">
         <v>59</v>
       </c>
-      <c r="AA53" s="32">
+      <c r="AA53" s="30">
         <f t="shared" si="1"/>
         <v>0.62716703357182169</v>
       </c>
-      <c r="AB53" s="32">
+      <c r="AB53" s="30">
         <f t="shared" si="2"/>
         <v>4.3393380069216433E-2</v>
       </c>
-      <c r="AC53" s="32">
+      <c r="AC53" s="30">
         <f t="shared" si="3"/>
         <v>0.89233576642335766</v>
       </c>
-      <c r="AD53" s="32">
+      <c r="AD53" s="30">
         <f t="shared" si="4"/>
         <v>8.2762122366082755E-2</v>
       </c>
@@ -31352,19 +31436,19 @@
       <c r="Z54" s="9">
         <v>117</v>
       </c>
-      <c r="AA54" s="32">
+      <c r="AA54" s="30">
         <f t="shared" si="1"/>
         <v>0.74532195927352785</v>
       </c>
-      <c r="AB54" s="32">
+      <c r="AB54" s="30">
         <f t="shared" si="2"/>
         <v>5.5843482767556359E-2</v>
       </c>
-      <c r="AC54" s="32">
+      <c r="AC54" s="30">
         <f t="shared" si="3"/>
         <v>0.78649635036496346</v>
       </c>
-      <c r="AD54" s="32">
+      <c r="AD54" s="30">
         <f t="shared" si="4"/>
         <v>0.10428260343576094</v>
       </c>
@@ -31442,19 +31526,19 @@
       <c r="Z55" s="9">
         <v>61</v>
       </c>
-      <c r="AA55" s="32">
+      <c r="AA55" s="30">
         <f t="shared" si="1"/>
         <v>0.61127545404512929</v>
       </c>
-      <c r="AB55" s="32">
+      <c r="AB55" s="30">
         <f t="shared" si="2"/>
         <v>4.1528097552656261E-2</v>
       </c>
-      <c r="AC55" s="32">
+      <c r="AC55" s="30">
         <f t="shared" si="3"/>
         <v>0.88868613138686137</v>
       </c>
-      <c r="AD55" s="32">
+      <c r="AD55" s="30">
         <f t="shared" si="4"/>
         <v>7.9348268839103855E-2</v>
       </c>
@@ -31532,19 +31616,19 @@
       <c r="Z56" s="9">
         <v>77</v>
       </c>
-      <c r="AA56" s="32">
+      <c r="AA56" s="30">
         <f t="shared" si="1"/>
         <v>0.69320996147495872</v>
       </c>
-      <c r="AB56" s="32">
+      <c r="AB56" s="30">
         <f t="shared" si="2"/>
         <v>5.0574465800493934E-2</v>
       </c>
-      <c r="AC56" s="32">
+      <c r="AC56" s="30">
         <f t="shared" si="3"/>
         <v>0.85948905109489049</v>
       </c>
-      <c r="AD56" s="32">
+      <c r="AD56" s="30">
         <f t="shared" si="4"/>
         <v>9.5527836933373897E-2</v>
       </c>
@@ -31622,19 +31706,19 @@
       <c r="Z57" s="9">
         <v>62</v>
       </c>
-      <c r="AA57" s="32">
+      <c r="AA57" s="30">
         <f t="shared" si="1"/>
         <v>0.64495046780407261</v>
       </c>
-      <c r="AB57" s="32">
+      <c r="AB57" s="30">
         <f t="shared" si="2"/>
         <v>4.5226130653266333E-2</v>
       </c>
-      <c r="AC57" s="32">
+      <c r="AC57" s="30">
         <f t="shared" si="3"/>
         <v>0.88686131386861311</v>
       </c>
-      <c r="AD57" s="32">
+      <c r="AD57" s="30">
         <f t="shared" si="4"/>
         <v>8.6063396493713487E-2</v>
       </c>
@@ -31712,19 +31796,19 @@
       <c r="Z58" s="9">
         <v>70</v>
       </c>
-      <c r="AA58" s="32">
+      <c r="AA58" s="30">
         <f t="shared" si="1"/>
         <v>0.63057237204182714</v>
       </c>
-      <c r="AB58" s="32">
+      <c r="AB58" s="30">
         <f t="shared" si="2"/>
         <v>4.2877646214567633E-2</v>
       </c>
-      <c r="AC58" s="32">
+      <c r="AC58" s="30">
         <f t="shared" si="3"/>
         <v>0.87226277372262773</v>
       </c>
-      <c r="AD58" s="32">
+      <c r="AD58" s="30">
         <f t="shared" si="4"/>
         <v>8.1737346101231179E-2</v>
       </c>
@@ -31802,19 +31886,19 @@
       <c r="Z59" s="9">
         <v>88</v>
       </c>
-      <c r="AA59" s="32">
+      <c r="AA59" s="30">
         <f t="shared" si="1"/>
         <v>0.66624243258117777</v>
       </c>
-      <c r="AB59" s="32">
+      <c r="AB59" s="30">
         <f t="shared" si="2"/>
         <v>4.5657568238213403E-2</v>
       </c>
-      <c r="AC59" s="32">
+      <c r="AC59" s="30">
         <f t="shared" si="3"/>
         <v>0.83941605839416056</v>
       </c>
-      <c r="AD59" s="32">
+      <c r="AD59" s="30">
         <f t="shared" si="4"/>
         <v>8.6604537324672895E-2</v>
       </c>
@@ -31892,19 +31976,19 @@
       <c r="Z60" s="9">
         <v>64</v>
       </c>
-      <c r="AA60" s="32">
+      <c r="AA60" s="30">
         <f t="shared" ref="AA60:AA123" si="7">(W60+X60)/V60</f>
         <v>0.65279306549257021</v>
       </c>
-      <c r="AB60" s="32">
+      <c r="AB60" s="30">
         <f t="shared" si="2"/>
         <v>4.6033859615750426E-2</v>
       </c>
-      <c r="AC60" s="32">
+      <c r="AC60" s="30">
         <f t="shared" ref="AC60:AC123" si="8">(W60/(W60+Z60))</f>
         <v>0.88321167883211682</v>
       </c>
-      <c r="AD60" s="32">
+      <c r="AD60" s="30">
         <f t="shared" ref="AD60:AD85" si="9">IF(AND(AB60=0,AC60=0),0,2*(AB60*AC60)/(AB60+AC60))</f>
         <v>8.750677996745615E-2</v>
       </c>
@@ -31982,19 +32066,19 @@
       <c r="Z61" s="9">
         <v>108</v>
       </c>
-      <c r="AA61" s="32">
+      <c r="AA61" s="30">
         <f t="shared" si="7"/>
         <v>0.71704733076499727</v>
       </c>
-      <c r="AB61" s="32">
+      <c r="AB61" s="30">
         <f t="shared" si="2"/>
         <v>5.1413881748071981E-2</v>
       </c>
-      <c r="AC61" s="32">
+      <c r="AC61" s="30">
         <f t="shared" si="8"/>
         <v>0.8029197080291971</v>
       </c>
-      <c r="AD61" s="32">
+      <c r="AD61" s="30">
         <f t="shared" si="9"/>
         <v>9.6639578300021983E-2</v>
       </c>
@@ -32072,19 +32156,19 @@
       <c r="Z62" s="9">
         <v>98</v>
       </c>
-      <c r="AA62" s="32">
+      <c r="AA62" s="30">
         <f t="shared" si="7"/>
         <v>0.72430517336268574</v>
       </c>
-      <c r="AB62" s="32">
+      <c r="AB62" s="30">
         <f t="shared" si="2"/>
         <v>5.3782717820007174E-2</v>
       </c>
-      <c r="AC62" s="32">
+      <c r="AC62" s="30">
         <f t="shared" si="8"/>
         <v>0.82116788321167888</v>
       </c>
-      <c r="AD62" s="32">
+      <c r="AD62" s="30">
         <f t="shared" si="9"/>
         <v>0.10095344924284913</v>
       </c>
@@ -32162,19 +32246,19 @@
       <c r="Z63" s="9">
         <v>99</v>
       </c>
-      <c r="AA63" s="32">
+      <c r="AA63" s="30">
         <f t="shared" si="7"/>
         <v>0.70483626857457349</v>
       </c>
-      <c r="AB63" s="32">
+      <c r="AB63" s="30">
         <f t="shared" si="2"/>
         <v>5.0274325383495688E-2</v>
       </c>
-      <c r="AC63" s="32">
+      <c r="AC63" s="30">
         <f t="shared" si="8"/>
         <v>0.81934306569343063</v>
       </c>
-      <c r="AD63" s="32">
+      <c r="AD63" s="30">
         <f t="shared" si="9"/>
         <v>9.4735731617259206E-2</v>
       </c>
@@ -32252,19 +32336,19 @@
       <c r="Z64" s="9">
         <v>117</v>
       </c>
-      <c r="AA64" s="32">
+      <c r="AA64" s="30">
         <f t="shared" si="7"/>
         <v>0.69967666483214086</v>
       </c>
-      <c r="AB64" s="32">
+      <c r="AB64" s="30">
         <f t="shared" si="2"/>
         <v>4.7650635710337202E-2</v>
       </c>
-      <c r="AC64" s="32">
+      <c r="AC64" s="30">
         <f t="shared" si="8"/>
         <v>0.78649635036496346</v>
       </c>
-      <c r="AD64" s="32">
+      <c r="AD64" s="30">
         <f t="shared" si="9"/>
         <v>8.9857187532575836E-2</v>
       </c>
@@ -32342,19 +32426,19 @@
       <c r="Z65" s="9">
         <v>57</v>
       </c>
-      <c r="AA65" s="32">
+      <c r="AA65" s="30">
         <f t="shared" si="7"/>
         <v>0.62933406714364337</v>
       </c>
-      <c r="AB65" s="32">
+      <c r="AB65" s="30">
         <f t="shared" si="2"/>
         <v>4.3800178412132025E-2</v>
       </c>
-      <c r="AC65" s="32">
+      <c r="AC65" s="30">
         <f t="shared" si="8"/>
         <v>0.89598540145985406</v>
       </c>
-      <c r="AD65" s="32">
+      <c r="AD65" s="30">
         <f t="shared" si="9"/>
         <v>8.351760503486988E-2</v>
       </c>
@@ -32432,19 +32516,19 @@
       <c r="Z66" s="10">
         <v>79</v>
       </c>
-      <c r="AA66" s="33">
+      <c r="AA66" s="31">
         <f t="shared" si="7"/>
         <v>0.68904788112272974</v>
       </c>
-      <c r="AB66" s="33">
+      <c r="AB66" s="31">
         <f t="shared" si="2"/>
         <v>4.973488865323436E-2</v>
       </c>
-      <c r="AC66" s="33">
+      <c r="AC66" s="31">
         <f t="shared" si="8"/>
         <v>0.8558394160583942</v>
       </c>
-      <c r="AD66" s="33">
+      <c r="AD66" s="31">
         <f t="shared" si="9"/>
         <v>9.4006814992984564E-2</v>
       </c>
@@ -32522,19 +32606,19 @@
       <c r="Z67" s="10">
         <v>87</v>
       </c>
-      <c r="AA67" s="33">
+      <c r="AA67" s="31">
         <f t="shared" si="7"/>
         <v>0.67184920198128784</v>
       </c>
-      <c r="AB67" s="33">
+      <c r="AB67" s="31">
         <f t="shared" si="2"/>
         <v>4.6499899132539844E-2</v>
       </c>
-      <c r="AC67" s="33">
+      <c r="AC67" s="31">
         <f t="shared" si="8"/>
         <v>0.84124087591240881</v>
       </c>
-      <c r="AD67" s="33">
+      <c r="AD67" s="31">
         <f t="shared" si="9"/>
         <v>8.812846492066527E-2</v>
       </c>
@@ -32612,19 +32696,19 @@
       <c r="Z68" s="10">
         <v>100</v>
       </c>
-      <c r="AA68" s="33">
+      <c r="AA68" s="31">
         <f t="shared" si="7"/>
         <v>0.70917033571821686</v>
       </c>
-      <c r="AB68" s="33">
+      <c r="AB68" s="31">
         <f t="shared" si="2"/>
         <v>5.08917414517778E-2</v>
       </c>
-      <c r="AC68" s="33">
+      <c r="AC68" s="31">
         <f t="shared" si="8"/>
         <v>0.81751824817518248</v>
       </c>
-      <c r="AD68" s="33">
+      <c r="AD68" s="31">
         <f t="shared" si="9"/>
         <v>9.5818629023633833E-2</v>
       </c>
@@ -32702,19 +32786,19 @@
       <c r="Z69" s="10">
         <v>108</v>
       </c>
-      <c r="AA69" s="33">
+      <c r="AA69" s="31">
         <f t="shared" si="7"/>
         <v>0.73166620803522286</v>
       </c>
-      <c r="AB69" s="33">
+      <c r="AB69" s="31">
         <f t="shared" si="2"/>
         <v>5.4100577892536576E-2</v>
       </c>
-      <c r="AC69" s="33">
+      <c r="AC69" s="31">
         <f t="shared" si="8"/>
         <v>0.8029197080291971</v>
       </c>
-      <c r="AD69" s="33">
+      <c r="AD69" s="31">
         <f t="shared" si="9"/>
         <v>0.10137080981453749</v>
       </c>
@@ -32792,19 +32876,19 @@
       <c r="Z70" s="10">
         <v>85</v>
       </c>
-      <c r="AA70" s="33">
+      <c r="AA70" s="31">
         <f t="shared" si="7"/>
         <v>0.69895432030820037</v>
       </c>
-      <c r="AB70" s="33">
+      <c r="AB70" s="31">
         <f t="shared" si="2"/>
         <v>5.071193866374589E-2</v>
       </c>
-      <c r="AC70" s="33">
+      <c r="AC70" s="31">
         <f t="shared" si="8"/>
         <v>0.8448905109489051</v>
       </c>
-      <c r="AD70" s="33">
+      <c r="AD70" s="31">
         <f t="shared" si="9"/>
         <v>9.5680925811117992E-2</v>
       </c>
@@ -32882,19 +32966,19 @@
       <c r="Z71" s="10">
         <v>146</v>
       </c>
-      <c r="AA71" s="33">
+      <c r="AA71" s="31">
         <f t="shared" si="7"/>
         <v>0.78374380847550906</v>
       </c>
-      <c r="AB71" s="33">
+      <c r="AB71" s="31">
         <f t="shared" si="2"/>
         <v>6.1439706556625402E-2</v>
       </c>
-      <c r="AC71" s="33">
+      <c r="AC71" s="31">
         <f t="shared" si="8"/>
         <v>0.73357664233576647</v>
       </c>
-      <c r="AD71" s="33">
+      <c r="AD71" s="31">
         <f t="shared" si="9"/>
         <v>0.11338316175433648</v>
       </c>
@@ -32972,19 +33056,19 @@
       <c r="Z72" s="10">
         <v>96</v>
       </c>
-      <c r="AA72" s="33">
+      <c r="AA72" s="31">
         <f t="shared" si="7"/>
         <v>0.71642817831590533</v>
       </c>
-      <c r="AB72" s="33">
+      <c r="AB72" s="31">
         <f t="shared" si="2"/>
         <v>5.2558139534883724E-2</v>
       </c>
-      <c r="AC72" s="33">
+      <c r="AC72" s="31">
         <f t="shared" si="8"/>
         <v>0.82481751824817517</v>
       </c>
-      <c r="AD72" s="33">
+      <c r="AD72" s="31">
         <f t="shared" si="9"/>
         <v>9.8819414079580239E-2</v>
       </c>
@@ -33062,19 +33146,19 @@
       <c r="Z73" s="10">
         <v>62</v>
       </c>
-      <c r="AA73" s="33">
+      <c r="AA73" s="31">
         <f t="shared" si="7"/>
         <v>0.64288662630709958</v>
       </c>
-      <c r="AB73" s="33">
+      <c r="AB73" s="31">
         <f t="shared" si="2"/>
         <v>4.4975013881177126E-2</v>
       </c>
-      <c r="AC73" s="33">
+      <c r="AC73" s="31">
         <f t="shared" si="8"/>
         <v>0.88686131386861311</v>
       </c>
-      <c r="AD73" s="33">
+      <c r="AD73" s="31">
         <f t="shared" si="9"/>
         <v>8.5608596089483888E-2</v>
       </c>
@@ -33152,19 +33236,19 @@
       <c r="Z74" s="10">
         <v>90</v>
       </c>
-      <c r="AA74" s="33">
+      <c r="AA74" s="31">
         <f t="shared" si="7"/>
         <v>0.70934232250963125</v>
       </c>
-      <c r="AB74" s="33">
+      <c r="AB74" s="31">
         <f t="shared" si="2"/>
         <v>5.1939215241551373E-2</v>
       </c>
-      <c r="AC74" s="33">
+      <c r="AC74" s="31">
         <f t="shared" si="8"/>
         <v>0.83576642335766427</v>
       </c>
-      <c r="AD74" s="33">
+      <c r="AD74" s="31">
         <f t="shared" si="9"/>
         <v>9.7800555199658329E-2</v>
       </c>
@@ -33242,19 +33326,19 @@
       <c r="Z75" s="10">
         <v>104</v>
       </c>
-      <c r="AA75" s="33">
+      <c r="AA75" s="31">
         <f t="shared" si="7"/>
         <v>0.69582416070445785</v>
       </c>
-      <c r="AB75" s="33">
+      <c r="AB75" s="31">
         <f t="shared" si="2"/>
         <v>4.8350212348905588E-2</v>
       </c>
-      <c r="AC75" s="33">
+      <c r="AC75" s="31">
         <f t="shared" si="8"/>
         <v>0.81021897810218979</v>
       </c>
-      <c r="AD75" s="33">
+      <c r="AD75" s="31">
         <f t="shared" si="9"/>
         <v>9.125475285171103E-2</v>
       </c>
@@ -33332,19 +33416,19 @@
       <c r="Z76" s="10">
         <v>51</v>
       </c>
-      <c r="AA76" s="33">
+      <c r="AA76" s="31">
         <f t="shared" si="7"/>
         <v>0.59988992845349476</v>
       </c>
-      <c r="AB76" s="33">
+      <c r="AB76" s="31">
         <f t="shared" si="2"/>
         <v>4.1149196886901808E-2</v>
       </c>
-      <c r="AC76" s="33">
+      <c r="AC76" s="31">
         <f t="shared" si="8"/>
         <v>0.90693430656934304</v>
       </c>
-      <c r="AD76" s="33">
+      <c r="AD76" s="31">
         <f t="shared" si="9"/>
         <v>7.8726437509900202E-2</v>
       </c>
@@ -33422,19 +33506,19 @@
       <c r="Z77" s="10">
         <v>132</v>
       </c>
-      <c r="AA77" s="33">
+      <c r="AA77" s="31">
         <f t="shared" si="7"/>
         <v>0.76262383048981841</v>
       </c>
-      <c r="AB77" s="33">
+      <c r="AB77" s="31">
         <f t="shared" si="2"/>
         <v>5.7898399443284621E-2</v>
       </c>
-      <c r="AC77" s="33">
+      <c r="AC77" s="31">
         <f t="shared" si="8"/>
         <v>0.75912408759124084</v>
       </c>
-      <c r="AD77" s="33">
+      <c r="AD77" s="31">
         <f t="shared" si="9"/>
         <v>0.10759084443294969</v>
       </c>
@@ -33512,19 +33596,19 @@
       <c r="Z78" s="10">
         <v>65</v>
       </c>
-      <c r="AA78" s="33">
+      <c r="AA78" s="31">
         <f t="shared" si="7"/>
         <v>0.65513208585580629</v>
       </c>
-      <c r="AB78" s="33">
+      <c r="AB78" s="31">
         <f t="shared" si="2"/>
         <v>4.6246648793565687E-2</v>
       </c>
-      <c r="AC78" s="33">
+      <c r="AC78" s="31">
         <f t="shared" si="8"/>
         <v>0.88138686131386856</v>
       </c>
-      <c r="AD78" s="33">
+      <c r="AD78" s="31">
         <f t="shared" si="9"/>
         <v>8.7882096069869006E-2</v>
       </c>
@@ -33602,19 +33686,19 @@
       <c r="Z79" s="10">
         <v>84</v>
       </c>
-      <c r="AA79" s="33">
+      <c r="AA79" s="31">
         <f t="shared" si="7"/>
         <v>0.69905751238304903</v>
       </c>
-      <c r="AB79" s="33">
+      <c r="AB79" s="31">
         <f t="shared" si="2"/>
         <v>5.0827034724504325E-2</v>
       </c>
-      <c r="AC79" s="33">
+      <c r="AC79" s="31">
         <f t="shared" si="8"/>
         <v>0.84671532846715325</v>
       </c>
-      <c r="AD79" s="33">
+      <c r="AD79" s="31">
         <f t="shared" si="9"/>
         <v>9.5897488891185281E-2</v>
       </c>
@@ -33692,19 +33776,19 @@
       <c r="Z80" s="10">
         <v>81</v>
       </c>
-      <c r="AA80" s="33">
+      <c r="AA80" s="31">
         <f t="shared" si="7"/>
         <v>0.69338194826637312</v>
       </c>
-      <c r="AB80" s="33">
+      <c r="AB80" s="31">
         <f t="shared" ref="AB80:AB85" si="11">IF(AND(W80=0, Y80=0),0,(W80/(W80+Y80)))</f>
         <v>5.0215053763440862E-2</v>
       </c>
-      <c r="AC80" s="33">
+      <c r="AC80" s="31">
         <f t="shared" si="8"/>
         <v>0.8521897810218978</v>
       </c>
-      <c r="AD80" s="33">
+      <c r="AD80" s="31">
         <f t="shared" si="9"/>
         <v>9.4841592201462238E-2</v>
       </c>
@@ -33782,19 +33866,19 @@
       <c r="Z81" s="10">
         <v>98</v>
       </c>
-      <c r="AA81" s="33">
+      <c r="AA81" s="31">
         <f t="shared" si="7"/>
         <v>0.70920473307649967</v>
       </c>
-      <c r="AB81" s="33">
+      <c r="AB81" s="31">
         <f t="shared" si="11"/>
         <v>5.1101521689756985E-2</v>
       </c>
-      <c r="AC81" s="33">
+      <c r="AC81" s="31">
         <f t="shared" si="8"/>
         <v>0.82116788321167888</v>
       </c>
-      <c r="AD81" s="33">
+      <c r="AD81" s="31">
         <f t="shared" si="9"/>
         <v>9.6215522771007048E-2</v>
       </c>
@@ -33872,19 +33956,19 @@
       <c r="Z82" s="10">
         <v>104</v>
       </c>
-      <c r="AA82" s="33">
+      <c r="AA82" s="31">
         <f t="shared" si="7"/>
         <v>0.69847275729224001</v>
       </c>
-      <c r="AB82" s="33">
+      <c r="AB82" s="31">
         <f t="shared" si="11"/>
         <v>4.8759059960465624E-2</v>
       </c>
-      <c r="AC82" s="33">
+      <c r="AC82" s="31">
         <f t="shared" si="8"/>
         <v>0.81021897810218979</v>
       </c>
-      <c r="AD82" s="33">
+      <c r="AD82" s="31">
         <f t="shared" si="9"/>
         <v>9.1982597886886272E-2</v>
       </c>
@@ -33962,19 +34046,19 @@
       <c r="Z83" s="10">
         <v>92</v>
       </c>
-      <c r="AA83" s="33">
+      <c r="AA83" s="31">
         <f t="shared" si="7"/>
         <v>0.71003026967528893</v>
       </c>
-      <c r="AB83" s="33">
+      <c r="AB83" s="31">
         <f t="shared" si="11"/>
         <v>5.1853536502160562E-2</v>
       </c>
-      <c r="AC83" s="33">
+      <c r="AC83" s="31">
         <f t="shared" si="8"/>
         <v>0.83211678832116787</v>
       </c>
-      <c r="AD83" s="33">
+      <c r="AD83" s="31">
         <f t="shared" si="9"/>
         <v>9.7623635195889541E-2</v>
       </c>
@@ -34052,19 +34136,19 @@
       <c r="Z84" s="10">
         <v>90</v>
       </c>
-      <c r="AA84" s="33">
+      <c r="AA84" s="31">
         <f t="shared" si="7"/>
         <v>0.69836956521739135</v>
       </c>
-      <c r="AB84" s="33">
+      <c r="AB84" s="31">
         <f t="shared" si="11"/>
         <v>5.0125861880267047E-2</v>
       </c>
-      <c r="AC84" s="33">
+      <c r="AC84" s="31">
         <f t="shared" si="8"/>
         <v>0.83576642335766427</v>
       </c>
-      <c r="AD84" s="33">
+      <c r="AD84" s="31">
         <f t="shared" si="9"/>
         <v>9.4579246257098612E-2</v>
       </c>
@@ -34142,19 +34226,19 @@
       <c r="Z85" s="10">
         <v>101</v>
       </c>
-      <c r="AA85" s="33">
+      <c r="AA85" s="31">
         <f t="shared" si="7"/>
         <v>0.70280682443588327</v>
       </c>
-      <c r="AB85" s="33">
+      <c r="AB85" s="31">
         <f t="shared" si="11"/>
         <v>4.9744046294235476E-2</v>
       </c>
-      <c r="AC85" s="33">
+      <c r="AC85" s="31">
         <f t="shared" si="8"/>
         <v>0.81569343065693434</v>
       </c>
-      <c r="AD85" s="33">
+      <c r="AD85" s="31">
         <f t="shared" si="9"/>
         <v>9.3769666456891124E-2</v>
       </c>
@@ -34232,19 +34316,19 @@
       <c r="Z86" s="9">
         <v>548</v>
       </c>
-      <c r="AA86" s="32">
+      <c r="AA86" s="30">
         <f t="shared" si="7"/>
         <v>0.98115024766097969</v>
       </c>
-      <c r="AB86" s="32">
+      <c r="AB86" s="30">
         <f>IF(AND(W86=0, Y86=0),0,(W86/(W86+Y86)))</f>
         <v>0</v>
       </c>
-      <c r="AC86" s="32">
+      <c r="AC86" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD86" s="32">
+      <c r="AD86" s="30">
         <f>IF(AND(AB86=0,AC86=0),0,2*(AB86*AC86)/(AB86+AC86))</f>
         <v>0</v>
       </c>
@@ -34322,19 +34406,19 @@
       <c r="Z87" s="9">
         <v>529</v>
       </c>
-      <c r="AA87" s="32">
+      <c r="AA87" s="30">
         <f t="shared" si="7"/>
         <v>0.98145982388552555</v>
       </c>
-      <c r="AB87" s="32">
+      <c r="AB87" s="30">
         <f t="shared" ref="AB87:AB150" si="12">IF(AND(W87=0, Y87=0),0,(W87/(W87+Y87)))</f>
         <v>0.65517241379310343</v>
       </c>
-      <c r="AC87" s="32">
+      <c r="AC87" s="30">
         <f t="shared" si="8"/>
         <v>3.4671532846715328E-2</v>
       </c>
-      <c r="AD87" s="32">
+      <c r="AD87" s="30">
         <f t="shared" ref="AD87:AD150" si="13">IF(AND(AB87=0,AC87=0),0,2*(AB87*AC87)/(AB87+AC87))</f>
         <v>6.5857885615251299E-2</v>
       </c>
@@ -34412,19 +34496,19 @@
       <c r="Z88" s="9">
         <v>538</v>
       </c>
-      <c r="AA88" s="32">
+      <c r="AA88" s="30">
         <f t="shared" si="7"/>
         <v>0.98056549257017056</v>
       </c>
-      <c r="AB88" s="32">
+      <c r="AB88" s="30">
         <f t="shared" si="12"/>
         <v>0.27027027027027029</v>
       </c>
-      <c r="AC88" s="32">
+      <c r="AC88" s="30">
         <f t="shared" si="8"/>
         <v>1.824817518248175E-2</v>
       </c>
-      <c r="AD88" s="32">
+      <c r="AD88" s="30">
         <f t="shared" si="13"/>
         <v>3.4188034188034191E-2</v>
       </c>
@@ -34502,19 +34586,19 @@
       <c r="Z89" s="9">
         <v>534</v>
       </c>
-      <c r="AA89" s="32">
+      <c r="AA89" s="30">
         <f t="shared" si="7"/>
         <v>0.98066868464501922</v>
       </c>
-      <c r="AB89" s="32">
+      <c r="AB89" s="30">
         <f t="shared" si="12"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AC89" s="32">
+      <c r="AC89" s="30">
         <f t="shared" si="8"/>
         <v>2.5547445255474453E-2</v>
       </c>
-      <c r="AD89" s="32">
+      <c r="AD89" s="30">
         <f t="shared" si="13"/>
         <v>4.7457627118644069E-2</v>
       </c>
@@ -34592,19 +34676,19 @@
       <c r="Z90" s="9">
         <v>548</v>
       </c>
-      <c r="AA90" s="32">
+      <c r="AA90" s="30">
         <f t="shared" si="7"/>
         <v>0.98115024766097969</v>
       </c>
-      <c r="AB90" s="32">
+      <c r="AB90" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC90" s="32">
+      <c r="AC90" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD90" s="32">
+      <c r="AD90" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -34682,19 +34766,19 @@
       <c r="Z91" s="9">
         <v>548</v>
       </c>
-      <c r="AA91" s="32">
+      <c r="AA91" s="30">
         <f t="shared" si="7"/>
         <v>0.98115024766097969</v>
       </c>
-      <c r="AB91" s="32">
+      <c r="AB91" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC91" s="32">
+      <c r="AC91" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD91" s="32">
+      <c r="AD91" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -34772,19 +34856,19 @@
       <c r="Z92" s="9">
         <v>548</v>
       </c>
-      <c r="AA92" s="32">
+      <c r="AA92" s="30">
         <f t="shared" si="7"/>
         <v>0.98115024766097969</v>
       </c>
-      <c r="AB92" s="32">
+      <c r="AB92" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC92" s="32">
+      <c r="AC92" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD92" s="32">
+      <c r="AD92" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -34862,19 +34946,19 @@
       <c r="Z93" s="9">
         <v>548</v>
       </c>
-      <c r="AA93" s="32">
+      <c r="AA93" s="30">
         <f t="shared" si="7"/>
         <v>0.98115024766097969</v>
       </c>
-      <c r="AB93" s="32">
+      <c r="AB93" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC93" s="32">
+      <c r="AC93" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD93" s="32">
+      <c r="AD93" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -34952,19 +35036,19 @@
       <c r="Z94" s="9">
         <v>548</v>
       </c>
-      <c r="AA94" s="32">
+      <c r="AA94" s="30">
         <f t="shared" si="7"/>
         <v>0.98115024766097969</v>
       </c>
-      <c r="AB94" s="32">
+      <c r="AB94" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC94" s="32">
+      <c r="AC94" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD94" s="32">
+      <c r="AD94" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -35042,19 +35126,19 @@
       <c r="Z95" s="9">
         <v>548</v>
       </c>
-      <c r="AA95" s="32">
+      <c r="AA95" s="30">
         <f t="shared" si="7"/>
         <v>0.98115024766097969</v>
       </c>
-      <c r="AB95" s="32">
+      <c r="AB95" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC95" s="32">
+      <c r="AC95" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD95" s="32">
+      <c r="AD95" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -35132,19 +35216,19 @@
       <c r="Z96" s="9">
         <v>534</v>
       </c>
-      <c r="AA96" s="32">
+      <c r="AA96" s="30">
         <f t="shared" si="7"/>
         <v>0.98115024766097969</v>
       </c>
-      <c r="AB96" s="32">
+      <c r="AB96" s="30">
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="AC96" s="32">
+      <c r="AC96" s="30">
         <f t="shared" si="8"/>
         <v>2.5547445255474453E-2</v>
       </c>
-      <c r="AD96" s="32">
+      <c r="AD96" s="30">
         <f t="shared" si="13"/>
         <v>4.8611111111111112E-2</v>
       </c>
@@ -35222,19 +35306,19 @@
       <c r="Z97" s="9">
         <v>526</v>
       </c>
-      <c r="AA97" s="32">
+      <c r="AA97" s="30">
         <f t="shared" si="7"/>
         <v>0.98053109521188775</v>
       </c>
-      <c r="AB97" s="32">
+      <c r="AB97" s="30">
         <f t="shared" si="12"/>
         <v>0.35483870967741937</v>
       </c>
-      <c r="AC97" s="32">
+      <c r="AC97" s="30">
         <f t="shared" si="8"/>
         <v>4.0145985401459854E-2</v>
       </c>
-      <c r="AD97" s="32">
+      <c r="AD97" s="30">
         <f t="shared" si="13"/>
         <v>7.2131147540983612E-2</v>
       </c>
@@ -35312,19 +35396,19 @@
       <c r="Z98" s="9">
         <v>539</v>
       </c>
-      <c r="AA98" s="32">
+      <c r="AA98" s="30">
         <f t="shared" si="7"/>
         <v>0.98094386351128238</v>
       </c>
-      <c r="AB98" s="32">
+      <c r="AB98" s="30">
         <f t="shared" si="12"/>
         <v>0.375</v>
       </c>
-      <c r="AC98" s="32">
+      <c r="AC98" s="30">
         <f t="shared" si="8"/>
         <v>1.6423357664233577E-2</v>
       </c>
-      <c r="AD98" s="32">
+      <c r="AD98" s="30">
         <f t="shared" si="13"/>
         <v>3.1468531468531472E-2</v>
       </c>
@@ -35402,19 +35486,19 @@
       <c r="Z99" s="9">
         <v>544</v>
       </c>
-      <c r="AA99" s="32">
+      <c r="AA99" s="30">
         <f t="shared" si="7"/>
         <v>0.98108145294441385</v>
       </c>
-      <c r="AB99" s="32">
+      <c r="AB99" s="30">
         <f t="shared" si="12"/>
         <v>0.4</v>
       </c>
-      <c r="AC99" s="32">
+      <c r="AC99" s="30">
         <f t="shared" si="8"/>
         <v>7.2992700729927005E-3</v>
       </c>
-      <c r="AD99" s="32">
+      <c r="AD99" s="30">
         <f t="shared" si="13"/>
         <v>1.4336917562724014E-2</v>
       </c>
@@ -35492,19 +35576,19 @@
       <c r="Z100" s="9">
         <v>548</v>
       </c>
-      <c r="AA100" s="32">
+      <c r="AA100" s="30">
         <f t="shared" si="7"/>
         <v>0.98115024766097969</v>
       </c>
-      <c r="AB100" s="32">
+      <c r="AB100" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC100" s="32">
+      <c r="AC100" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD100" s="32">
+      <c r="AD100" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -35582,19 +35666,19 @@
       <c r="Z101" s="9">
         <v>534</v>
       </c>
-      <c r="AA101" s="32">
+      <c r="AA101" s="30">
         <f t="shared" si="7"/>
         <v>0.98070308200330214</v>
       </c>
-      <c r="AB101" s="32">
+      <c r="AB101" s="30">
         <f t="shared" si="12"/>
         <v>0.34146341463414637</v>
       </c>
-      <c r="AC101" s="32">
+      <c r="AC101" s="30">
         <f t="shared" si="8"/>
         <v>2.5547445255474453E-2</v>
       </c>
-      <c r="AD101" s="32">
+      <c r="AD101" s="30">
         <f t="shared" si="13"/>
         <v>4.7538200339558571E-2</v>
       </c>
@@ -35672,19 +35756,19 @@
       <c r="Z102" s="9">
         <v>543</v>
       </c>
-      <c r="AA102" s="32">
+      <c r="AA102" s="30">
         <f t="shared" si="7"/>
         <v>0.98108145294441385</v>
       </c>
-      <c r="AB102" s="32">
+      <c r="AB102" s="30">
         <f t="shared" si="12"/>
         <v>0.41666666666666669</v>
       </c>
-      <c r="AC102" s="32">
+      <c r="AC102" s="30">
         <f t="shared" si="8"/>
         <v>9.1240875912408752E-3</v>
       </c>
-      <c r="AD102" s="32">
+      <c r="AD102" s="30">
         <f t="shared" si="13"/>
         <v>1.7857142857142853E-2</v>
       </c>
@@ -35762,19 +35846,19 @@
       <c r="Z103" s="9">
         <v>547</v>
       </c>
-      <c r="AA103" s="32">
+      <c r="AA103" s="30">
         <f t="shared" si="7"/>
         <v>0.98115024766097969</v>
       </c>
-      <c r="AB103" s="32">
+      <c r="AB103" s="30">
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="AC103" s="32">
+      <c r="AC103" s="30">
         <f t="shared" si="8"/>
         <v>1.8248175182481751E-3</v>
       </c>
-      <c r="AD103" s="32">
+      <c r="AD103" s="30">
         <f t="shared" si="13"/>
         <v>3.6363636363636364E-3</v>
       </c>
@@ -35852,19 +35936,19 @@
       <c r="Z104" s="9">
         <v>547</v>
       </c>
-      <c r="AA104" s="32">
+      <c r="AA104" s="30">
         <f t="shared" si="7"/>
         <v>0.98111585030269677</v>
       </c>
-      <c r="AB104" s="32">
+      <c r="AB104" s="30">
         <f t="shared" si="12"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AC104" s="32">
+      <c r="AC104" s="30">
         <f t="shared" si="8"/>
         <v>1.8248175182481751E-3</v>
       </c>
-      <c r="AD104" s="32">
+      <c r="AD104" s="30">
         <f t="shared" si="13"/>
         <v>3.6297640653357526E-3</v>
       </c>
@@ -35942,19 +36026,19 @@
       <c r="Z105" s="9">
         <v>548</v>
       </c>
-      <c r="AA105" s="32">
+      <c r="AA105" s="30">
         <f t="shared" si="7"/>
         <v>0.98104705558613103</v>
       </c>
-      <c r="AB105" s="32">
+      <c r="AB105" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC105" s="32">
+      <c r="AC105" s="30">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD105" s="32">
+      <c r="AD105" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -36020,19 +36104,19 @@
       <c r="Z106" s="10">
         <v>115</v>
       </c>
-      <c r="AA106" s="33">
+      <c r="AA106" s="31">
         <f t="shared" si="7"/>
         <v>0.74212300495321959</v>
       </c>
-      <c r="AB106" s="33">
+      <c r="AB106" s="31">
         <f t="shared" si="12"/>
         <v>5.5406269993602049E-2</v>
       </c>
-      <c r="AC106" s="33">
+      <c r="AC106" s="31">
         <f t="shared" si="8"/>
         <v>0.79014598540145986</v>
       </c>
-      <c r="AD106" s="33">
+      <c r="AD106" s="31">
         <f t="shared" si="13"/>
         <v>0.1035513571684802</v>
       </c>
@@ -36098,19 +36182,19 @@
       <c r="Z107" s="10">
         <v>92</v>
       </c>
-      <c r="AA107" s="33">
+      <c r="AA107" s="31">
         <f t="shared" si="7"/>
         <v>0.69761282333516783</v>
       </c>
-      <c r="AB107" s="33">
+      <c r="AB107" s="31">
         <f t="shared" si="12"/>
         <v>4.9808847624249045E-2</v>
       </c>
-      <c r="AC107" s="33">
+      <c r="AC107" s="31">
         <f t="shared" si="8"/>
         <v>0.83211678832116787</v>
       </c>
-      <c r="AD107" s="33">
+      <c r="AD107" s="31">
         <f t="shared" si="13"/>
         <v>9.3991549005462222E-2</v>
       </c>
@@ -36176,19 +36260,19 @@
       <c r="Z108" s="10">
         <v>91</v>
       </c>
-      <c r="AA108" s="33">
+      <c r="AA108" s="31">
         <f t="shared" si="7"/>
         <v>0.70889515685195381</v>
       </c>
-      <c r="AB108" s="33">
+      <c r="AB108" s="31">
         <f t="shared" si="12"/>
         <v>5.176124136368785E-2</v>
       </c>
-      <c r="AC108" s="33">
+      <c r="AC108" s="31">
         <f t="shared" si="8"/>
         <v>0.83394160583941601</v>
       </c>
-      <c r="AD108" s="33">
+      <c r="AD108" s="31">
         <f t="shared" si="13"/>
         <v>9.7472539191639118E-2</v>
       </c>
@@ -36254,19 +36338,19 @@
       <c r="Z109" s="10">
         <v>95</v>
       </c>
-      <c r="AA109" s="33">
+      <c r="AA109" s="31">
         <f t="shared" si="7"/>
         <v>0.71907677490368738</v>
       </c>
-      <c r="AB109" s="33">
+      <c r="AB109" s="31">
         <f t="shared" si="12"/>
         <v>5.3137829912023461E-2</v>
       </c>
-      <c r="AC109" s="33">
+      <c r="AC109" s="31">
         <f t="shared" si="8"/>
         <v>0.82664233576642332</v>
       </c>
-      <c r="AD109" s="33">
+      <c r="AD109" s="31">
         <f t="shared" si="13"/>
         <v>9.9856717733935854E-2</v>
       </c>
@@ -36332,19 +36416,19 @@
       <c r="Z110" s="10">
         <v>84</v>
       </c>
-      <c r="AA110" s="33">
+      <c r="AA110" s="31">
         <f t="shared" si="7"/>
         <v>0.68540176114474405</v>
       </c>
-      <c r="AB110" s="33">
+      <c r="AB110" s="31">
         <f t="shared" si="12"/>
         <v>4.8708796976695362E-2</v>
       </c>
-      <c r="AC110" s="33">
+      <c r="AC110" s="31">
         <f t="shared" si="8"/>
         <v>0.84671532846715325</v>
       </c>
-      <c r="AD110" s="33">
+      <c r="AD110" s="31">
         <f t="shared" si="13"/>
         <v>9.2118324399444104E-2</v>
       </c>
@@ -36410,19 +36494,19 @@
       <c r="Z111" s="10">
         <v>90</v>
       </c>
-      <c r="AA111" s="33">
+      <c r="AA111" s="31">
         <f t="shared" si="7"/>
         <v>0.69069895432030814</v>
       </c>
-      <c r="AB111" s="33">
+      <c r="AB111" s="31">
         <f t="shared" si="12"/>
         <v>4.8931623931623931E-2</v>
       </c>
-      <c r="AC111" s="33">
+      <c r="AC111" s="31">
         <f t="shared" si="8"/>
         <v>0.83576642335766427</v>
       </c>
-      <c r="AD111" s="33">
+      <c r="AD111" s="31">
         <f t="shared" si="13"/>
         <v>9.2450545014129984E-2</v>
       </c>
@@ -36488,19 +36572,19 @@
       <c r="Z112" s="10">
         <v>102</v>
       </c>
-      <c r="AA112" s="33">
+      <c r="AA112" s="31">
         <f t="shared" si="7"/>
         <v>0.71209411117226196</v>
       </c>
-      <c r="AB112" s="33">
+      <c r="AB112" s="31">
         <f t="shared" si="12"/>
         <v>5.1182005967408767E-2</v>
       </c>
-      <c r="AC112" s="33">
+      <c r="AC112" s="31">
         <f t="shared" si="8"/>
         <v>0.81386861313868608</v>
       </c>
-      <c r="AD112" s="33">
+      <c r="AD112" s="31">
         <f t="shared" si="13"/>
         <v>9.6307492982077303E-2</v>
       </c>
@@ -36566,19 +36650,19 @@
       <c r="Z113" s="10">
         <v>91</v>
       </c>
-      <c r="AA113" s="33">
+      <c r="AA113" s="31">
         <f t="shared" si="7"/>
         <v>0.69637451843698406</v>
       </c>
-      <c r="AB113" s="33">
+      <c r="AB113" s="31">
         <f t="shared" si="12"/>
         <v>4.971173719134124E-2</v>
       </c>
-      <c r="AC113" s="33">
+      <c r="AC113" s="31">
         <f t="shared" si="8"/>
         <v>0.83394160583941601</v>
       </c>
-      <c r="AD113" s="33">
+      <c r="AD113" s="31">
         <f t="shared" si="13"/>
         <v>9.3830202237963248E-2</v>
       </c>
@@ -36644,19 +36728,19 @@
       <c r="Z114" s="10">
         <v>87</v>
       </c>
-      <c r="AA114" s="33">
+      <c r="AA114" s="31">
         <f t="shared" si="7"/>
         <v>0.6867776554760594</v>
       </c>
-      <c r="AB114" s="33">
+      <c r="AB114" s="31">
         <f t="shared" si="12"/>
         <v>4.8628691983122363E-2</v>
       </c>
-      <c r="AC114" s="33">
+      <c r="AC114" s="31">
         <f t="shared" si="8"/>
         <v>0.84124087591240881</v>
       </c>
-      <c r="AD114" s="33">
+      <c r="AD114" s="31">
         <f t="shared" si="13"/>
         <v>9.1942560829676903E-2</v>
       </c>
@@ -36722,19 +36806,19 @@
       <c r="Z115" s="10">
         <v>106</v>
       </c>
-      <c r="AA115" s="33">
+      <c r="AA115" s="31">
         <f t="shared" si="7"/>
         <v>0.73187259218492018</v>
       </c>
-      <c r="AB115" s="33">
+      <c r="AB115" s="31">
         <f t="shared" si="12"/>
         <v>5.4359857336121017E-2</v>
       </c>
-      <c r="AC115" s="33">
+      <c r="AC115" s="31">
         <f t="shared" si="8"/>
         <v>0.80656934306569339</v>
       </c>
-      <c r="AD115" s="33">
+      <c r="AD115" s="31">
         <f t="shared" si="13"/>
         <v>0.10185505242539462</v>
       </c>
@@ -36800,19 +36884,19 @@
       <c r="Z116" s="10">
         <v>88</v>
       </c>
-      <c r="AA116" s="33">
+      <c r="AA116" s="31">
         <f t="shared" si="7"/>
         <v>0.68780957622454597</v>
       </c>
-      <c r="AB116" s="33">
+      <c r="AB116" s="31">
         <f t="shared" si="12"/>
         <v>4.8687552921253173E-2</v>
       </c>
-      <c r="AC116" s="33">
+      <c r="AC116" s="31">
         <f t="shared" si="8"/>
         <v>0.83941605839416056</v>
       </c>
-      <c r="AD116" s="33">
+      <c r="AD116" s="31">
         <f t="shared" si="13"/>
         <v>9.2036814725890356E-2</v>
       </c>
@@ -36878,19 +36962,19 @@
       <c r="Z117" s="10">
         <v>100</v>
       </c>
-      <c r="AA117" s="33">
+      <c r="AA117" s="31">
         <f t="shared" si="7"/>
         <v>0.71680654925701703</v>
       </c>
-      <c r="AB117" s="33">
+      <c r="AB117" s="31">
         <f t="shared" si="12"/>
         <v>5.2208367323155806E-2</v>
       </c>
-      <c r="AC117" s="33">
+      <c r="AC117" s="31">
         <f t="shared" si="8"/>
         <v>0.81751824817518248</v>
       </c>
-      <c r="AD117" s="33">
+      <c r="AD117" s="31">
         <f t="shared" si="13"/>
         <v>9.814875670938765E-2</v>
       </c>
@@ -36956,19 +37040,19 @@
       <c r="Z118" s="10">
         <v>109</v>
       </c>
-      <c r="AA118" s="33">
+      <c r="AA118" s="31">
         <f t="shared" si="7"/>
         <v>0.73328288387451845</v>
       </c>
-      <c r="AB118" s="33">
+      <c r="AB118" s="31">
         <f t="shared" si="12"/>
         <v>5.4304799604156358E-2</v>
       </c>
-      <c r="AC118" s="33">
+      <c r="AC118" s="31">
         <f t="shared" si="8"/>
         <v>0.80109489051094895</v>
       </c>
-      <c r="AD118" s="33">
+      <c r="AD118" s="31">
         <f t="shared" si="13"/>
         <v>0.10171455050973123</v>
       </c>
@@ -37034,19 +37118,19 @@
       <c r="Z119" s="10">
         <v>96</v>
       </c>
-      <c r="AA119" s="33">
+      <c r="AA119" s="31">
         <f t="shared" si="7"/>
         <v>0.71302283984589987</v>
       </c>
-      <c r="AB119" s="33">
+      <c r="AB119" s="31">
         <f t="shared" si="12"/>
         <v>5.195999540177032E-2</v>
       </c>
-      <c r="AC119" s="33">
+      <c r="AC119" s="31">
         <f t="shared" si="8"/>
         <v>0.82481751824817517</v>
       </c>
-      <c r="AD119" s="33">
+      <c r="AD119" s="31">
         <f t="shared" si="13"/>
         <v>9.7761436141451288E-2</v>
       </c>
@@ -37112,19 +37196,19 @@
       <c r="Z120" s="10">
         <v>111</v>
       </c>
-      <c r="AA120" s="33">
+      <c r="AA120" s="31">
         <f t="shared" si="7"/>
         <v>0.72089983489268028</v>
       </c>
-      <c r="AB120" s="33">
+      <c r="AB120" s="31">
         <f t="shared" si="12"/>
         <v>5.1777251184834124E-2</v>
       </c>
-      <c r="AC120" s="33">
+      <c r="AC120" s="31">
         <f t="shared" si="8"/>
         <v>0.79744525547445255</v>
       </c>
-      <c r="AD120" s="33">
+      <c r="AD120" s="31">
         <f t="shared" si="13"/>
         <v>9.7240765465064535E-2</v>
       </c>
@@ -37190,19 +37274,19 @@
       <c r="Z121" s="10">
         <v>107</v>
       </c>
-      <c r="AA121" s="33">
+      <c r="AA121" s="31">
         <f t="shared" si="7"/>
         <v>0.70710649422124383</v>
       </c>
-      <c r="AB121" s="33">
+      <c r="AB121" s="31">
         <f t="shared" si="12"/>
         <v>4.9836139676799639E-2</v>
       </c>
-      <c r="AC121" s="33">
+      <c r="AC121" s="31">
         <f t="shared" si="8"/>
         <v>0.80474452554744524</v>
       </c>
-      <c r="AD121" s="33">
+      <c r="AD121" s="31">
         <f t="shared" si="13"/>
         <v>9.3859742471001387E-2</v>
       </c>
@@ -37268,19 +37352,19 @@
       <c r="Z122" s="10">
         <v>115</v>
       </c>
-      <c r="AA122" s="33">
+      <c r="AA122" s="31">
         <f t="shared" si="7"/>
         <v>0.73569069895432027</v>
       </c>
-      <c r="AB122" s="33">
+      <c r="AB122" s="31">
         <f t="shared" si="12"/>
         <v>5.4111472131967008E-2</v>
       </c>
-      <c r="AC122" s="33">
+      <c r="AC122" s="31">
         <f t="shared" si="8"/>
         <v>0.79014598540145986</v>
       </c>
-      <c r="AD122" s="33">
+      <c r="AD122" s="31">
         <f t="shared" si="13"/>
         <v>0.10128654970760234</v>
       </c>
@@ -37346,19 +37430,19 @@
       <c r="Z123" s="10">
         <v>125</v>
       </c>
-      <c r="AA123" s="33">
+      <c r="AA123" s="31">
         <f t="shared" si="7"/>
         <v>0.75526279581728128</v>
       </c>
-      <c r="AB123" s="33">
+      <c r="AB123" s="31">
         <f t="shared" si="12"/>
         <v>5.7061918251719954E-2</v>
       </c>
-      <c r="AC123" s="33">
+      <c r="AC123" s="31">
         <f t="shared" si="8"/>
         <v>0.77189781021897808</v>
       </c>
-      <c r="AD123" s="33">
+      <c r="AD123" s="31">
         <f t="shared" si="13"/>
         <v>0.10626805677678684</v>
       </c>
@@ -37424,19 +37508,19 @@
       <c r="Z124" s="10">
         <v>106</v>
       </c>
-      <c r="AA124" s="33">
+      <c r="AA124" s="31">
         <f t="shared" ref="AA124:AA165" si="15">(W124+X124)/V124</f>
         <v>0.71766648321408921</v>
       </c>
-      <c r="AB124" s="33">
+      <c r="AB124" s="31">
         <f t="shared" si="12"/>
         <v>5.1732209737827717E-2</v>
       </c>
-      <c r="AC124" s="33">
+      <c r="AC124" s="31">
         <f t="shared" ref="AC124:AC165" si="16">(W124/(W124+Z124))</f>
         <v>0.80656934306569339</v>
       </c>
-      <c r="AD124" s="33">
+      <c r="AD124" s="31">
         <f t="shared" si="13"/>
         <v>9.7228332600087994E-2</v>
       </c>
@@ -37502,19 +37586,19 @@
       <c r="Z125" s="10">
         <v>88</v>
       </c>
-      <c r="AA125" s="33">
+      <c r="AA125" s="31">
         <f t="shared" si="15"/>
         <v>0.66067006053935062</v>
       </c>
-      <c r="AB125" s="33">
+      <c r="AB125" s="31">
         <f t="shared" si="12"/>
         <v>4.4935039562371791E-2</v>
       </c>
-      <c r="AC125" s="33">
+      <c r="AC125" s="31">
         <f t="shared" si="16"/>
         <v>0.83941605839416056</v>
       </c>
-      <c r="AD125" s="33">
+      <c r="AD125" s="31">
         <f t="shared" si="13"/>
         <v>8.5303662494204915E-2</v>
       </c>
@@ -37580,19 +37664,19 @@
       <c r="Z126" s="9">
         <v>547</v>
       </c>
-      <c r="AA126" s="32">
+      <c r="AA126" s="30">
         <f t="shared" si="15"/>
         <v>0.98115024766097969</v>
       </c>
-      <c r="AB126" s="32">
+      <c r="AB126" s="30">
         <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
-      <c r="AC126" s="32">
+      <c r="AC126" s="30">
         <f t="shared" si="16"/>
         <v>1.8248175182481751E-3</v>
       </c>
-      <c r="AD126" s="32">
+      <c r="AD126" s="30">
         <f t="shared" si="13"/>
         <v>3.6363636363636364E-3</v>
       </c>
@@ -37658,19 +37742,19 @@
       <c r="Z127" s="9">
         <v>548</v>
       </c>
-      <c r="AA127" s="32">
+      <c r="AA127" s="30">
         <f t="shared" si="15"/>
         <v>0.98097826086956519</v>
       </c>
-      <c r="AB127" s="32">
+      <c r="AB127" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC127" s="32">
+      <c r="AC127" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD127" s="32">
+      <c r="AD127" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -37736,19 +37820,19 @@
       <c r="Z128" s="9">
         <v>545</v>
       </c>
-      <c r="AA128" s="32">
+      <c r="AA128" s="30">
         <f t="shared" si="15"/>
         <v>0.98094386351128238</v>
       </c>
-      <c r="AB128" s="32">
+      <c r="AB128" s="30">
         <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
-      <c r="AC128" s="32">
+      <c r="AC128" s="30">
         <f t="shared" si="16"/>
         <v>5.4744525547445258E-3</v>
       </c>
-      <c r="AD128" s="32">
+      <c r="AD128" s="30">
         <f t="shared" si="13"/>
         <v>1.0714285714285714E-2</v>
       </c>
@@ -37814,19 +37898,19 @@
       <c r="Z129" s="9">
         <v>548</v>
       </c>
-      <c r="AA129" s="32">
+      <c r="AA129" s="30">
         <f t="shared" si="15"/>
         <v>0.98115024766097969</v>
       </c>
-      <c r="AB129" s="32">
+      <c r="AB129" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC129" s="32">
+      <c r="AC129" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD129" s="32">
+      <c r="AD129" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -37892,19 +37976,19 @@
       <c r="Z130" s="9">
         <v>548</v>
       </c>
-      <c r="AA130" s="32">
+      <c r="AA130" s="30">
         <f t="shared" si="15"/>
         <v>0.98111585030269677</v>
       </c>
-      <c r="AB130" s="32">
+      <c r="AB130" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC130" s="32">
+      <c r="AC130" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD130" s="32">
+      <c r="AD130" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -37970,19 +38054,19 @@
       <c r="Z131" s="9">
         <v>548</v>
       </c>
-      <c r="AA131" s="32">
+      <c r="AA131" s="30">
         <f t="shared" si="15"/>
         <v>0.98115024766097969</v>
       </c>
-      <c r="AB131" s="32">
+      <c r="AB131" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC131" s="32">
+      <c r="AC131" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD131" s="32">
+      <c r="AD131" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -38048,19 +38132,19 @@
       <c r="Z132" s="9">
         <v>547</v>
       </c>
-      <c r="AA132" s="32">
+      <c r="AA132" s="30">
         <f t="shared" si="15"/>
         <v>0.98090946615299945</v>
       </c>
-      <c r="AB132" s="32">
+      <c r="AB132" s="30">
         <f t="shared" si="12"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="AC132" s="32">
+      <c r="AC132" s="30">
         <f t="shared" si="16"/>
         <v>1.8248175182481751E-3</v>
       </c>
-      <c r="AD132" s="32">
+      <c r="AD132" s="30">
         <f t="shared" si="13"/>
         <v>3.5906642728904844E-3</v>
       </c>
@@ -38126,19 +38210,19 @@
       <c r="Z133" s="9">
         <v>547</v>
       </c>
-      <c r="AA133" s="32">
+      <c r="AA133" s="30">
         <f t="shared" si="15"/>
         <v>0.98111585030269677</v>
       </c>
-      <c r="AB133" s="32">
+      <c r="AB133" s="30">
         <f t="shared" si="12"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AC133" s="32">
+      <c r="AC133" s="30">
         <f t="shared" si="16"/>
         <v>1.8248175182481751E-3</v>
       </c>
-      <c r="AD133" s="32">
+      <c r="AD133" s="30">
         <f t="shared" si="13"/>
         <v>3.6297640653357526E-3</v>
       </c>
@@ -38204,19 +38288,19 @@
       <c r="Z134" s="9">
         <v>548</v>
       </c>
-      <c r="AA134" s="32">
+      <c r="AA134" s="30">
         <f t="shared" si="15"/>
         <v>0.98115024766097969</v>
       </c>
-      <c r="AB134" s="32">
+      <c r="AB134" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC134" s="32">
+      <c r="AC134" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD134" s="32">
+      <c r="AD134" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -38282,19 +38366,19 @@
       <c r="Z135" s="9">
         <v>548</v>
       </c>
-      <c r="AA135" s="32">
+      <c r="AA135" s="30">
         <f t="shared" si="15"/>
         <v>0.98115024766097969</v>
       </c>
-      <c r="AB135" s="32">
+      <c r="AB135" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC135" s="32">
+      <c r="AC135" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD135" s="32">
+      <c r="AD135" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -38360,19 +38444,19 @@
       <c r="Z136" s="9">
         <v>548</v>
       </c>
-      <c r="AA136" s="32">
+      <c r="AA136" s="30">
         <f t="shared" si="15"/>
         <v>0.98115024766097969</v>
       </c>
-      <c r="AB136" s="32">
+      <c r="AB136" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC136" s="32">
+      <c r="AC136" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD136" s="32">
+      <c r="AD136" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -38438,19 +38522,19 @@
       <c r="Z137" s="9">
         <v>545</v>
       </c>
-      <c r="AA137" s="32">
+      <c r="AA137" s="30">
         <f t="shared" si="15"/>
         <v>0.98094386351128238</v>
       </c>
-      <c r="AB137" s="32">
+      <c r="AB137" s="30">
         <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
-      <c r="AC137" s="32">
+      <c r="AC137" s="30">
         <f t="shared" si="16"/>
         <v>5.4744525547445258E-3</v>
       </c>
-      <c r="AD137" s="32">
+      <c r="AD137" s="30">
         <f t="shared" si="13"/>
         <v>1.0714285714285714E-2</v>
       </c>
@@ -38516,19 +38600,19 @@
       <c r="Z138" s="9">
         <v>548</v>
       </c>
-      <c r="AA138" s="32">
+      <c r="AA138" s="30">
         <f t="shared" si="15"/>
         <v>0.98115024766097969</v>
       </c>
-      <c r="AB138" s="32">
+      <c r="AB138" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC138" s="32">
+      <c r="AC138" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD138" s="32">
+      <c r="AD138" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -38594,19 +38678,19 @@
       <c r="Z139" s="9">
         <v>548</v>
       </c>
-      <c r="AA139" s="32">
+      <c r="AA139" s="30">
         <f t="shared" si="15"/>
         <v>0.98115024766097969</v>
       </c>
-      <c r="AB139" s="32">
+      <c r="AB139" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC139" s="32">
+      <c r="AC139" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD139" s="32">
+      <c r="AD139" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -38672,19 +38756,19 @@
       <c r="Z140" s="9">
         <v>548</v>
       </c>
-      <c r="AA140" s="32">
+      <c r="AA140" s="30">
         <f t="shared" si="15"/>
         <v>0.98115024766097969</v>
       </c>
-      <c r="AB140" s="32">
+      <c r="AB140" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC140" s="32">
+      <c r="AC140" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD140" s="32">
+      <c r="AD140" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -38750,19 +38834,19 @@
       <c r="Z141" s="9">
         <v>546</v>
       </c>
-      <c r="AA141" s="32">
+      <c r="AA141" s="30">
         <f t="shared" si="15"/>
         <v>0.9811846450192625</v>
       </c>
-      <c r="AB141" s="32">
+      <c r="AB141" s="30">
         <f t="shared" si="12"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AC141" s="32">
+      <c r="AC141" s="30">
         <f t="shared" si="16"/>
         <v>3.6496350364963502E-3</v>
       </c>
-      <c r="AD141" s="32">
+      <c r="AD141" s="30">
         <f t="shared" si="13"/>
         <v>7.2595281306715052E-3</v>
       </c>
@@ -38828,19 +38912,19 @@
       <c r="Z142" s="9">
         <v>548</v>
       </c>
-      <c r="AA142" s="32">
+      <c r="AA142" s="30">
         <f t="shared" si="15"/>
         <v>0.98115024766097969</v>
       </c>
-      <c r="AB142" s="32">
+      <c r="AB142" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC142" s="32">
+      <c r="AC142" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD142" s="32">
+      <c r="AD142" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -38906,19 +38990,19 @@
       <c r="Z143" s="9">
         <v>548</v>
       </c>
-      <c r="AA143" s="32">
+      <c r="AA143" s="30">
         <f t="shared" si="15"/>
         <v>0.98115024766097969</v>
       </c>
-      <c r="AB143" s="32">
+      <c r="AB143" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC143" s="32">
+      <c r="AC143" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD143" s="32">
+      <c r="AD143" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -38984,19 +39068,19 @@
       <c r="Z144" s="9">
         <v>548</v>
       </c>
-      <c r="AA144" s="32">
+      <c r="AA144" s="30">
         <f t="shared" si="15"/>
         <v>0.98115024766097969</v>
       </c>
-      <c r="AB144" s="32">
+      <c r="AB144" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC144" s="32">
+      <c r="AC144" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD144" s="32">
+      <c r="AD144" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -39062,19 +39146,19 @@
       <c r="Z145" s="9">
         <v>548</v>
       </c>
-      <c r="AA145" s="32">
+      <c r="AA145" s="30">
         <f t="shared" si="15"/>
         <v>0.98115024766097969</v>
       </c>
-      <c r="AB145" s="32">
+      <c r="AB145" s="30">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC145" s="32">
+      <c r="AC145" s="30">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD145" s="32">
+      <c r="AD145" s="30">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
@@ -39140,19 +39224,19 @@
       <c r="Z146">
         <v>101</v>
       </c>
-      <c r="AA146" s="32">
+      <c r="AA146" s="30">
         <f t="shared" si="15"/>
         <v>0.71020225646670332</v>
       </c>
-      <c r="AB146" s="32">
+      <c r="AB146" s="30">
         <f t="shared" si="12"/>
         <v>5.0963402120624786E-2</v>
       </c>
-      <c r="AC146" s="32">
+      <c r="AC146" s="30">
         <f t="shared" si="16"/>
         <v>0.81569343065693434</v>
       </c>
-      <c r="AD146" s="32">
+      <c r="AD146" s="30">
         <f t="shared" si="13"/>
         <v>9.5933040025753841E-2</v>
       </c>
@@ -39218,19 +39302,19 @@
       <c r="Z147">
         <v>80</v>
       </c>
-      <c r="AA147" s="32">
+      <c r="AA147" s="30">
         <f t="shared" si="15"/>
         <v>0.68467941662080356</v>
       </c>
-      <c r="AB147" s="32">
+      <c r="AB147" s="30">
         <f t="shared" si="12"/>
         <v>4.8979591836734691E-2</v>
       </c>
-      <c r="AC147" s="32">
+      <c r="AC147" s="30">
         <f t="shared" si="16"/>
         <v>0.85401459854014594</v>
       </c>
-      <c r="AD147" s="32">
+      <c r="AD147" s="30">
         <f t="shared" si="13"/>
         <v>9.2645748787488866E-2</v>
       </c>
@@ -39296,19 +39380,19 @@
       <c r="Z148">
         <v>112</v>
       </c>
-      <c r="AA148" s="32">
+      <c r="AA148" s="30">
         <f t="shared" si="15"/>
         <v>0.73751375894331317</v>
       </c>
-      <c r="AB148" s="32">
+      <c r="AB148" s="30">
         <f t="shared" si="12"/>
         <v>5.4808296668761788E-2</v>
       </c>
-      <c r="AC148" s="32">
+      <c r="AC148" s="30">
         <f t="shared" si="16"/>
         <v>0.79562043795620441</v>
       </c>
-      <c r="AD148" s="32">
+      <c r="AD148" s="30">
         <f t="shared" si="13"/>
         <v>0.10255204045630954</v>
       </c>
@@ -39374,19 +39458,19 @@
       <c r="Z149">
         <v>99</v>
       </c>
-      <c r="AA149" s="32">
+      <c r="AA149" s="30">
         <f t="shared" si="15"/>
         <v>0.71408915795266925</v>
       </c>
-      <c r="AB149" s="32">
+      <c r="AB149" s="30">
         <f t="shared" si="12"/>
         <v>5.1835603786654354E-2</v>
       </c>
-      <c r="AC149" s="32">
+      <c r="AC149" s="30">
         <f t="shared" si="16"/>
         <v>0.81934306569343063</v>
       </c>
-      <c r="AD149" s="32">
+      <c r="AD149" s="30">
         <f t="shared" si="13"/>
         <v>9.75027144408252E-2</v>
       </c>
@@ -39452,19 +39536,19 @@
       <c r="Z150">
         <v>110</v>
       </c>
-      <c r="AA150" s="32">
+      <c r="AA150" s="30">
         <f t="shared" si="15"/>
         <v>0.7278824986241057</v>
       </c>
-      <c r="AB150" s="32">
+      <c r="AB150" s="30">
         <f t="shared" si="12"/>
         <v>5.3161791479548491E-2</v>
       </c>
-      <c r="AC150" s="32">
+      <c r="AC150" s="30">
         <f t="shared" si="16"/>
         <v>0.7992700729927007</v>
       </c>
-      <c r="AD150" s="32">
+      <c r="AD150" s="30">
         <f t="shared" si="13"/>
         <v>9.9692727893479022E-2</v>
       </c>
@@ -39530,19 +39614,19 @@
       <c r="Z151">
         <v>97</v>
       </c>
-      <c r="AA151" s="32">
+      <c r="AA151" s="30">
         <f t="shared" si="15"/>
         <v>0.72372041827187672</v>
       </c>
-      <c r="AB151" s="32">
+      <c r="AB151" s="30">
         <f t="shared" ref="AB151:AB165" si="18">IF(AND(W151=0, Y151=0),0,(W151/(W151+Y151)))</f>
         <v>5.378010970665395E-2</v>
       </c>
-      <c r="AC151" s="32">
+      <c r="AC151" s="30">
         <f t="shared" si="16"/>
         <v>0.82299270072992703</v>
       </c>
-      <c r="AD151" s="32">
+      <c r="AD151" s="30">
         <f t="shared" ref="AD151:AD165" si="19">IF(AND(AB151=0,AC151=0),0,2*(AB151*AC151)/(AB151+AC151))</f>
         <v>0.10096261473024402</v>
       </c>
@@ -39608,19 +39692,19 @@
       <c r="Z152">
         <v>107</v>
       </c>
-      <c r="AA152" s="32">
+      <c r="AA152" s="30">
         <f t="shared" si="15"/>
         <v>0.71463951568519535</v>
       </c>
-      <c r="AB152" s="32">
+      <c r="AB152" s="30">
         <f t="shared" si="18"/>
         <v>5.1100811123986095E-2</v>
       </c>
-      <c r="AC152" s="32">
+      <c r="AC152" s="30">
         <f t="shared" si="16"/>
         <v>0.80474452554744524</v>
       </c>
-      <c r="AD152" s="32">
+      <c r="AD152" s="30">
         <f t="shared" si="19"/>
         <v>9.6099368054042275E-2</v>
       </c>
@@ -39686,19 +39770,19 @@
       <c r="Z153">
         <v>102</v>
       </c>
-      <c r="AA153" s="32">
+      <c r="AA153" s="30">
         <f t="shared" si="15"/>
         <v>0.7207622454595487</v>
       </c>
-      <c r="AB153" s="32">
+      <c r="AB153" s="30">
         <f t="shared" si="18"/>
         <v>5.2706216024580477E-2</v>
       </c>
-      <c r="AC153" s="32">
+      <c r="AC153" s="30">
         <f t="shared" si="16"/>
         <v>0.81386861313868608</v>
       </c>
-      <c r="AD153" s="32">
+      <c r="AD153" s="30">
         <f t="shared" si="19"/>
         <v>9.9001109877913426E-2</v>
       </c>
@@ -39764,19 +39848,19 @@
       <c r="Z154">
         <v>102</v>
       </c>
-      <c r="AA154" s="32">
+      <c r="AA154" s="30">
         <f t="shared" si="15"/>
         <v>0.73541552008805722</v>
       </c>
-      <c r="AB154" s="32">
+      <c r="AB154" s="30">
         <f t="shared" si="18"/>
         <v>5.5500248880039821E-2</v>
       </c>
-      <c r="AC154" s="32">
+      <c r="AC154" s="30">
         <f t="shared" si="16"/>
         <v>0.81386861313868608</v>
       </c>
-      <c r="AD154" s="32">
+      <c r="AD154" s="30">
         <f t="shared" si="19"/>
         <v>0.10391425908667289</v>
       </c>
@@ -39842,19 +39926,19 @@
       <c r="Z155">
         <v>101</v>
       </c>
-      <c r="AA155" s="32">
+      <c r="AA155" s="30">
         <f t="shared" si="15"/>
         <v>0.71825123830489823</v>
       </c>
-      <c r="AB155" s="32">
+      <c r="AB155" s="30">
         <f t="shared" si="18"/>
         <v>5.2360313927609231E-2</v>
       </c>
-      <c r="AC155" s="32">
+      <c r="AC155" s="30">
         <f t="shared" si="16"/>
         <v>0.81569343065693434</v>
       </c>
-      <c r="AD155" s="32">
+      <c r="AD155" s="30">
         <f t="shared" si="19"/>
         <v>9.8403962575674186E-2</v>
       </c>
@@ -39920,19 +40004,19 @@
       <c r="Z156">
         <v>84</v>
       </c>
-      <c r="AA156" s="32">
+      <c r="AA156" s="30">
         <f t="shared" si="15"/>
         <v>0.68884149697303243</v>
       </c>
-      <c r="AB156" s="32">
+      <c r="AB156" s="30">
         <f t="shared" si="18"/>
         <v>4.9225546361128796E-2</v>
       </c>
-      <c r="AC156" s="32">
+      <c r="AC156" s="30">
         <f t="shared" si="16"/>
         <v>0.84671532846715325</v>
       </c>
-      <c r="AD156" s="32">
+      <c r="AD156" s="30">
         <f t="shared" si="19"/>
         <v>9.3041908963304609E-2</v>
       </c>
@@ -39998,19 +40082,19 @@
       <c r="Z157">
         <v>98</v>
       </c>
-      <c r="AA157" s="32">
+      <c r="AA157" s="30">
         <f t="shared" si="15"/>
         <v>0.70524903687396812</v>
       </c>
-      <c r="AB157" s="32">
+      <c r="AB157" s="30">
         <f t="shared" si="18"/>
         <v>5.0442775473601612E-2</v>
       </c>
-      <c r="AC157" s="32">
+      <c r="AC157" s="30">
         <f t="shared" si="16"/>
         <v>0.82116788321167888</v>
       </c>
-      <c r="AD157" s="32">
+      <c r="AD157" s="30">
         <f t="shared" si="19"/>
         <v>9.504699545886576E-2</v>
       </c>
@@ -40076,19 +40160,19 @@
       <c r="Z158">
         <v>111</v>
       </c>
-      <c r="AA158" s="32">
+      <c r="AA158" s="30">
         <f t="shared" si="15"/>
         <v>0.72289488167308746</v>
       </c>
-      <c r="AB158" s="32">
+      <c r="AB158" s="30">
         <f t="shared" si="18"/>
         <v>5.2135528513481272E-2</v>
       </c>
-      <c r="AC158" s="32">
+      <c r="AC158" s="30">
         <f t="shared" si="16"/>
         <v>0.79744525547445255</v>
       </c>
-      <c r="AD158" s="32">
+      <c r="AD158" s="30">
         <f t="shared" si="19"/>
         <v>9.7872340425531917E-2</v>
       </c>
@@ -40154,19 +40238,19 @@
       <c r="Z159">
         <v>88</v>
       </c>
-      <c r="AA159" s="32">
+      <c r="AA159" s="30">
         <f t="shared" si="15"/>
         <v>0.69940148596587781</v>
       </c>
-      <c r="AB159" s="32">
+      <c r="AB159" s="30">
         <f t="shared" si="18"/>
         <v>5.0488420590495006E-2</v>
       </c>
-      <c r="AC159" s="32">
+      <c r="AC159" s="30">
         <f t="shared" si="16"/>
         <v>0.83941605839416056</v>
       </c>
-      <c r="AD159" s="32">
+      <c r="AD159" s="30">
         <f t="shared" si="19"/>
         <v>9.5247955274873175E-2</v>
       </c>
@@ -40232,19 +40316,19 @@
       <c r="Z160">
         <v>97</v>
       </c>
-      <c r="AA160" s="32">
+      <c r="AA160" s="30">
         <f t="shared" si="15"/>
         <v>0.71529306549257021</v>
       </c>
-      <c r="AB160" s="32">
+      <c r="AB160" s="30">
         <f t="shared" si="18"/>
         <v>5.2253504808249335E-2</v>
       </c>
-      <c r="AC160" s="32">
+      <c r="AC160" s="30">
         <f t="shared" si="16"/>
         <v>0.82299270072992703</v>
       </c>
-      <c r="AD160" s="32">
+      <c r="AD160" s="30">
         <f t="shared" si="19"/>
         <v>9.8267785161782334E-2</v>
       </c>
@@ -40310,19 +40394,19 @@
       <c r="Z161">
         <v>97</v>
       </c>
-      <c r="AA161" s="32">
+      <c r="AA161" s="30">
         <f t="shared" si="15"/>
         <v>0.72540588882773804</v>
       </c>
-      <c r="AB161" s="32">
+      <c r="AB161" s="30">
         <f t="shared" si="18"/>
         <v>5.4096197673023871E-2</v>
       </c>
-      <c r="AC161" s="32">
+      <c r="AC161" s="30">
         <f t="shared" si="16"/>
         <v>0.82299270072992703</v>
       </c>
-      <c r="AD161" s="32">
+      <c r="AD161" s="30">
         <f t="shared" si="19"/>
         <v>0.10151941474395047</v>
       </c>
@@ -40388,19 +40472,19 @@
       <c r="Z162">
         <v>112</v>
       </c>
-      <c r="AA162" s="32">
+      <c r="AA162" s="30">
         <f t="shared" si="15"/>
         <v>0.74497798569069895</v>
       </c>
-      <c r="AB162" s="32">
+      <c r="AB162" s="30">
         <f t="shared" si="18"/>
         <v>5.634530886533988E-2</v>
       </c>
-      <c r="AC162" s="32">
+      <c r="AC162" s="30">
         <f t="shared" si="16"/>
         <v>0.79562043795620441</v>
       </c>
-      <c r="AD162" s="32">
+      <c r="AD162" s="30">
         <f t="shared" si="19"/>
         <v>0.10523775042239923</v>
       </c>
@@ -40466,19 +40550,19 @@
       <c r="Z163">
         <v>111</v>
       </c>
-      <c r="AA163" s="32">
+      <c r="AA163" s="30">
         <f t="shared" si="15"/>
         <v>0.73596587782058343</v>
       </c>
-      <c r="AB163" s="32">
+      <c r="AB163" s="30">
         <f t="shared" si="18"/>
         <v>5.4611347163209201E-2</v>
       </c>
-      <c r="AC163" s="32">
+      <c r="AC163" s="30">
         <f t="shared" si="16"/>
         <v>0.79744525547445255</v>
       </c>
-      <c r="AD163" s="32">
+      <c r="AD163" s="30">
         <f t="shared" si="19"/>
         <v>0.10222222222222224</v>
       </c>
@@ -40544,19 +40628,19 @@
       <c r="Z164">
         <v>97</v>
       </c>
-      <c r="AA164" s="32">
+      <c r="AA164" s="30">
         <f t="shared" si="15"/>
         <v>0.71742570170610898</v>
       </c>
-      <c r="AB164" s="32">
+      <c r="AB164" s="30">
         <f t="shared" si="18"/>
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="AC164" s="32">
+      <c r="AC164" s="30">
         <f t="shared" si="16"/>
         <v>0.82299270072992703</v>
       </c>
-      <c r="AD164" s="32">
+      <c r="AD164" s="30">
         <f t="shared" si="19"/>
         <v>9.8936053526379283E-2</v>
       </c>
@@ -40622,19 +40706,19 @@
       <c r="Z165">
         <v>93</v>
       </c>
-      <c r="AA165" s="32">
+      <c r="AA165" s="30">
         <f t="shared" si="15"/>
         <v>0.71924876169510177</v>
       </c>
-      <c r="AB165" s="32">
+      <c r="AB165" s="30">
         <f t="shared" si="18"/>
         <v>5.3378695448146413E-2</v>
       </c>
-      <c r="AC165" s="32">
+      <c r="AC165" s="30">
         <f t="shared" si="16"/>
         <v>0.83029197080291972</v>
       </c>
-      <c r="AD165" s="32">
+      <c r="AD165" s="30">
         <f t="shared" si="19"/>
         <v>0.10030864197530864</v>
       </c>
@@ -40700,19 +40784,19 @@
       <c r="Z166">
         <v>543</v>
       </c>
-      <c r="AA166" s="32">
+      <c r="AA166" s="30">
         <f t="shared" ref="AA166:AA185" si="20">(W166+X166)/V166</f>
         <v>0.98121904237754543</v>
       </c>
-      <c r="AB166" s="32">
+      <c r="AB166" s="30">
         <f t="shared" ref="AB166:AB185" si="21">IF(AND(W166=0, Y166=0),0,(W166/(W166+Y166)))</f>
         <v>0.625</v>
       </c>
-      <c r="AC166" s="32">
+      <c r="AC166" s="30">
         <f t="shared" ref="AC166:AC185" si="22">(W166/(W166+Z166))</f>
         <v>9.1240875912408752E-3</v>
       </c>
-      <c r="AD166" s="32">
+      <c r="AD166" s="30">
         <f t="shared" ref="AD166:AD185" si="23">IF(AND(AB166=0,AC166=0),0,2*(AB166*AC166)/(AB166+AC166))</f>
         <v>1.798561151079137E-2</v>
       </c>
@@ -40778,19 +40862,19 @@
       <c r="Z167">
         <v>541</v>
       </c>
-      <c r="AA167" s="32">
+      <c r="AA167" s="30">
         <f t="shared" si="20"/>
         <v>0.98087506879471653</v>
       </c>
-      <c r="AB167" s="32">
+      <c r="AB167" s="30">
         <f t="shared" si="21"/>
         <v>0.31818181818181818</v>
       </c>
-      <c r="AC167" s="32">
+      <c r="AC167" s="30">
         <f t="shared" si="22"/>
         <v>1.2773722627737226E-2</v>
       </c>
-      <c r="AD167" s="32">
+      <c r="AD167" s="30">
         <f t="shared" si="23"/>
         <v>2.4561403508771926E-2</v>
       </c>
@@ -40856,19 +40940,19 @@
       <c r="Z168">
         <v>538</v>
       </c>
-      <c r="AA168" s="32">
+      <c r="AA168" s="30">
         <f t="shared" si="20"/>
         <v>0.98132223445239408</v>
       </c>
-      <c r="AB168" s="32">
+      <c r="AB168" s="30">
         <f t="shared" si="21"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AC168" s="32">
+      <c r="AC168" s="30">
         <f t="shared" si="22"/>
         <v>1.824817518248175E-2</v>
       </c>
-      <c r="AD168" s="32">
+      <c r="AD168" s="30">
         <f t="shared" si="23"/>
         <v>3.5523978685612786E-2</v>
       </c>
@@ -40934,19 +41018,19 @@
       <c r="Z169">
         <v>547</v>
       </c>
-      <c r="AA169" s="32">
+      <c r="AA169" s="30">
         <f t="shared" si="20"/>
         <v>0.98104705558613103</v>
       </c>
-      <c r="AB169" s="32">
+      <c r="AB169" s="30">
         <f t="shared" si="21"/>
         <v>0.2</v>
       </c>
-      <c r="AC169" s="32">
+      <c r="AC169" s="30">
         <f t="shared" si="22"/>
         <v>1.8248175182481751E-3</v>
       </c>
-      <c r="AD169" s="32">
+      <c r="AD169" s="30">
         <f t="shared" si="23"/>
         <v>3.6166365280289334E-3</v>
       </c>
@@ -41012,19 +41096,19 @@
       <c r="Z170">
         <v>545</v>
       </c>
-      <c r="AA170" s="32">
+      <c r="AA170" s="30">
         <f t="shared" si="20"/>
         <v>0.98111585030269677</v>
       </c>
-      <c r="AB170" s="32">
+      <c r="AB170" s="30">
         <f t="shared" si="21"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="AC170" s="32">
+      <c r="AC170" s="30">
         <f t="shared" si="22"/>
         <v>5.4744525547445258E-3</v>
       </c>
-      <c r="AD170" s="32">
+      <c r="AD170" s="30">
         <f t="shared" si="23"/>
         <v>1.0810810810810811E-2</v>
       </c>
@@ -41090,19 +41174,19 @@
       <c r="Z171">
         <v>541</v>
       </c>
-      <c r="AA171" s="32">
+      <c r="AA171" s="30">
         <f t="shared" si="20"/>
         <v>0.98115024766097969</v>
       </c>
-      <c r="AB171" s="32">
+      <c r="AB171" s="30">
         <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
-      <c r="AC171" s="32">
+      <c r="AC171" s="30">
         <f t="shared" si="22"/>
         <v>1.2773722627737226E-2</v>
       </c>
-      <c r="AD171" s="32">
+      <c r="AD171" s="30">
         <f t="shared" si="23"/>
         <v>2.491103202846975E-2</v>
       </c>
@@ -41168,19 +41252,19 @@
       <c r="Z172">
         <v>540</v>
       </c>
-      <c r="AA172" s="32">
+      <c r="AA172" s="30">
         <f t="shared" si="20"/>
         <v>0.98108145294441385</v>
       </c>
-      <c r="AB172" s="32">
+      <c r="AB172" s="30">
         <f t="shared" si="21"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="AC172" s="32">
+      <c r="AC172" s="30">
         <f t="shared" si="22"/>
         <v>1.4598540145985401E-2</v>
       </c>
-      <c r="AD172" s="32">
+      <c r="AD172" s="30">
         <f t="shared" si="23"/>
         <v>2.8268551236749116E-2</v>
       </c>
@@ -41246,19 +41330,19 @@
       <c r="Z173">
         <v>540</v>
       </c>
-      <c r="AA173" s="32">
+      <c r="AA173" s="30">
         <f t="shared" si="20"/>
         <v>0.98115024766097969</v>
       </c>
-      <c r="AB173" s="32">
+      <c r="AB173" s="30">
         <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
-      <c r="AC173" s="32">
+      <c r="AC173" s="30">
         <f t="shared" si="22"/>
         <v>1.4598540145985401E-2</v>
       </c>
-      <c r="AD173" s="32">
+      <c r="AD173" s="30">
         <f t="shared" si="23"/>
         <v>2.8368794326241134E-2</v>
       </c>
@@ -41324,19 +41408,19 @@
       <c r="Z174">
         <v>545</v>
       </c>
-      <c r="AA174" s="32">
+      <c r="AA174" s="30">
         <f t="shared" si="20"/>
         <v>0.98115024766097969</v>
       </c>
-      <c r="AB174" s="32">
+      <c r="AB174" s="30">
         <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
-      <c r="AC174" s="32">
+      <c r="AC174" s="30">
         <f t="shared" si="22"/>
         <v>5.4744525547445258E-3</v>
       </c>
-      <c r="AD174" s="32">
+      <c r="AD174" s="30">
         <f t="shared" si="23"/>
         <v>1.0830324909747292E-2</v>
       </c>
@@ -41402,19 +41486,19 @@
       <c r="Z175">
         <v>525</v>
       </c>
-      <c r="AA175" s="32">
+      <c r="AA175" s="30">
         <f t="shared" si="20"/>
         <v>0.98094386351128238</v>
       </c>
-      <c r="AB175" s="32">
+      <c r="AB175" s="30">
         <f t="shared" si="21"/>
         <v>0.44230769230769229</v>
       </c>
-      <c r="AC175" s="32">
+      <c r="AC175" s="30">
         <f t="shared" si="22"/>
         <v>4.1970802919708027E-2</v>
       </c>
-      <c r="AD175" s="32">
+      <c r="AD175" s="30">
         <f t="shared" si="23"/>
         <v>7.6666666666666661E-2</v>
       </c>
@@ -41480,19 +41564,19 @@
       <c r="Z176">
         <v>535</v>
       </c>
-      <c r="AA176" s="32">
+      <c r="AA176" s="30">
         <f t="shared" si="20"/>
         <v>0.98108145294441385</v>
       </c>
-      <c r="AB176" s="32">
+      <c r="AB176" s="30">
         <f t="shared" si="21"/>
         <v>0.4642857142857143</v>
       </c>
-      <c r="AC176" s="32">
+      <c r="AC176" s="30">
         <f t="shared" si="22"/>
         <v>2.3722627737226276E-2</v>
       </c>
-      <c r="AD176" s="32">
+      <c r="AD176" s="30">
         <f t="shared" si="23"/>
         <v>4.5138888888888888E-2</v>
       </c>
@@ -41558,19 +41642,19 @@
       <c r="Z177">
         <v>543</v>
       </c>
-      <c r="AA177" s="32">
+      <c r="AA177" s="30">
         <f t="shared" si="20"/>
         <v>0.98104705558613103</v>
       </c>
-      <c r="AB177" s="32">
+      <c r="AB177" s="30">
         <f t="shared" si="21"/>
         <v>0.38461538461538464</v>
       </c>
-      <c r="AC177" s="32">
+      <c r="AC177" s="30">
         <f t="shared" si="22"/>
         <v>9.1240875912408752E-3</v>
       </c>
-      <c r="AD177" s="32">
+      <c r="AD177" s="30">
         <f t="shared" si="23"/>
         <v>1.7825311942958999E-2</v>
       </c>
@@ -41636,19 +41720,19 @@
       <c r="Z178">
         <v>543</v>
       </c>
-      <c r="AA178" s="32">
+      <c r="AA178" s="30">
         <f t="shared" si="20"/>
         <v>0.98125343973582824</v>
       </c>
-      <c r="AB178" s="32">
+      <c r="AB178" s="30">
         <f t="shared" si="21"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="AC178" s="32">
+      <c r="AC178" s="30">
         <f t="shared" si="22"/>
         <v>9.1240875912408752E-3</v>
       </c>
-      <c r="AD178" s="32">
+      <c r="AD178" s="30">
         <f t="shared" si="23"/>
         <v>1.8018018018018018E-2</v>
       </c>
@@ -41714,19 +41798,19 @@
       <c r="Z179">
         <v>540</v>
       </c>
-      <c r="AA179" s="32">
+      <c r="AA179" s="30">
         <f t="shared" si="20"/>
         <v>0.98073747936158506</v>
       </c>
-      <c r="AB179" s="32">
+      <c r="AB179" s="30">
         <f t="shared" si="21"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="AC179" s="32">
+      <c r="AC179" s="30">
         <f t="shared" si="22"/>
         <v>1.4598540145985401E-2</v>
       </c>
-      <c r="AD179" s="32">
+      <c r="AD179" s="30">
         <f t="shared" si="23"/>
         <v>2.7777777777777776E-2</v>
       </c>
@@ -41792,19 +41876,19 @@
       <c r="Z180">
         <v>543</v>
       </c>
-      <c r="AA180" s="32">
+      <c r="AA180" s="30">
         <f t="shared" si="20"/>
         <v>0.98097826086956519</v>
       </c>
-      <c r="AB180" s="32">
+      <c r="AB180" s="30">
         <f t="shared" si="21"/>
         <v>0.33333333333333331</v>
       </c>
-      <c r="AC180" s="32">
+      <c r="AC180" s="30">
         <f t="shared" si="22"/>
         <v>9.1240875912408752E-3</v>
       </c>
-      <c r="AD180" s="32">
+      <c r="AD180" s="30">
         <f t="shared" si="23"/>
         <v>1.7761989342806393E-2</v>
       </c>
@@ -41870,19 +41954,19 @@
       <c r="Z181">
         <v>546</v>
       </c>
-      <c r="AA181" s="32">
+      <c r="AA181" s="30">
         <f t="shared" si="20"/>
         <v>0.98111585030269677</v>
       </c>
-      <c r="AB181" s="32">
+      <c r="AB181" s="30">
         <f t="shared" si="21"/>
         <v>0.4</v>
       </c>
-      <c r="AC181" s="32">
+      <c r="AC181" s="30">
         <f t="shared" si="22"/>
         <v>3.6496350364963502E-3</v>
       </c>
-      <c r="AD181" s="32">
+      <c r="AD181" s="30">
         <f t="shared" si="23"/>
         <v>7.2332730560578668E-3</v>
       </c>
@@ -41948,19 +42032,19 @@
       <c r="Z182">
         <v>541</v>
       </c>
-      <c r="AA182" s="32">
+      <c r="AA182" s="30">
         <f t="shared" si="20"/>
         <v>0.98077187671986787</v>
       </c>
-      <c r="AB182" s="32">
+      <c r="AB182" s="30">
         <f t="shared" si="21"/>
         <v>0.28000000000000003</v>
       </c>
-      <c r="AC182" s="32">
+      <c r="AC182" s="30">
         <f t="shared" si="22"/>
         <v>1.2773722627737226E-2</v>
       </c>
-      <c r="AD182" s="32">
+      <c r="AD182" s="30">
         <f t="shared" si="23"/>
         <v>2.4432809773123908E-2</v>
       </c>
@@ -42026,19 +42110,19 @@
       <c r="Z183">
         <v>547</v>
       </c>
-      <c r="AA183" s="32">
+      <c r="AA183" s="30">
         <f t="shared" si="20"/>
         <v>0.98115024766097969</v>
       </c>
-      <c r="AB183" s="32">
+      <c r="AB183" s="30">
         <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
-      <c r="AC183" s="32">
+      <c r="AC183" s="30">
         <f t="shared" si="22"/>
         <v>1.8248175182481751E-3</v>
       </c>
-      <c r="AD183" s="32">
+      <c r="AD183" s="30">
         <f t="shared" si="23"/>
         <v>3.6363636363636364E-3</v>
       </c>
@@ -42104,19 +42188,19 @@
       <c r="Z184">
         <v>544</v>
       </c>
-      <c r="AA184" s="32">
+      <c r="AA184" s="30">
         <f t="shared" si="20"/>
         <v>0.98104705558613103</v>
       </c>
-      <c r="AB184" s="32">
+      <c r="AB184" s="30">
         <f t="shared" si="21"/>
         <v>0.36363636363636365</v>
       </c>
-      <c r="AC184" s="32">
+      <c r="AC184" s="30">
         <f t="shared" si="22"/>
         <v>7.2992700729927005E-3</v>
       </c>
-      <c r="AD184" s="32">
+      <c r="AD184" s="30">
         <f t="shared" si="23"/>
         <v>1.4311270125223614E-2</v>
       </c>
@@ -42182,19 +42266,19 @@
       <c r="Z185">
         <v>530</v>
       </c>
-      <c r="AA185" s="32">
+      <c r="AA185" s="30">
         <f t="shared" si="20"/>
         <v>0.98029031370390751</v>
       </c>
-      <c r="AB185" s="32">
+      <c r="AB185" s="30">
         <f t="shared" si="21"/>
         <v>0.29508196721311475</v>
       </c>
-      <c r="AC185" s="32">
+      <c r="AC185" s="30">
         <f t="shared" si="22"/>
         <v>3.2846715328467155E-2</v>
       </c>
-      <c r="AD185" s="32">
+      <c r="AD185" s="30">
         <f t="shared" si="23"/>
         <v>5.9113300492610842E-2</v>
       </c>
@@ -42219,28 +42303,28 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="27"/>
+      <c r="S3" s="37"/>
       <c r="T3" s="13"/>
       <c r="U3" s="9" t="s">
         <v>25</v>
@@ -44153,8 +44237,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:30" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="3">
@@ -44206,10 +44290,10 @@
         <v>14</v>
       </c>
       <c r="R5" s="3"/>
-      <c r="S5" s="29">
+      <c r="S5" s="27">
         <v>0.82099407911300604</v>
       </c>
-      <c r="T5" s="30"/>
+      <c r="T5" s="28"/>
       <c r="U5" s="3" t="s">
         <v>60</v>
       </c>
@@ -44217,37 +44301,37 @@
         <f>SUM(W5:Z5)</f>
         <v>29072</v>
       </c>
-      <c r="W5" s="29">
+      <c r="W5" s="27">
         <v>382</v>
       </c>
-      <c r="X5" s="29">
+      <c r="X5" s="27">
         <v>24837</v>
       </c>
-      <c r="Y5" s="29">
+      <c r="Y5" s="27">
         <v>3687</v>
       </c>
-      <c r="Z5" s="29">
+      <c r="Z5" s="27">
         <v>166</v>
       </c>
-      <c r="AA5" s="31">
+      <c r="AA5" s="29">
         <f t="shared" ref="AA5:AA14" si="0">(W5+X5)/V5</f>
         <v>0.86746697853604848</v>
       </c>
-      <c r="AB5" s="31">
+      <c r="AB5" s="29">
         <f t="shared" ref="AB5:AB14" si="1">IF(AND(W5=0, Y5=0),0,(W5/(W5+Y5)))</f>
         <v>9.3880560334234461E-2</v>
       </c>
-      <c r="AC5" s="31">
+      <c r="AC5" s="29">
         <f t="shared" ref="AC5:AC14" si="2">(W5/(W5+Z5))</f>
         <v>0.6970802919708029</v>
       </c>
-      <c r="AD5" s="31">
+      <c r="AD5" s="29">
         <f t="shared" ref="AD5:AD14" si="3">IF(AND(AB5=0,AC5=0),0,2*(AB5*AC5)/(AB5+AC5))</f>
         <v>0.16547541693740525</v>
       </c>
     </row>
-    <row r="6" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:30" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="27" t="s">
         <v>59</v>
       </c>
       <c r="B6" s="3">
@@ -44299,10 +44383,10 @@
         <v>14</v>
       </c>
       <c r="R6" s="3"/>
-      <c r="S6" s="29">
+      <c r="S6" s="27">
         <v>0.84845322370529097</v>
       </c>
-      <c r="T6" s="30"/>
+      <c r="T6" s="28"/>
       <c r="U6" s="3" t="s">
         <v>60</v>
       </c>
@@ -44310,37 +44394,37 @@
         <f t="shared" ref="V6:V9" si="4">SUM(W6:Z6)</f>
         <v>29072</v>
       </c>
-      <c r="W6" s="29">
+      <c r="W6" s="27">
         <v>382</v>
       </c>
-      <c r="X6" s="29">
+      <c r="X6" s="27">
         <v>24837</v>
       </c>
-      <c r="Y6" s="29">
+      <c r="Y6" s="27">
         <v>3687</v>
       </c>
-      <c r="Z6" s="29">
+      <c r="Z6" s="27">
         <v>166</v>
       </c>
-      <c r="AA6" s="31">
+      <c r="AA6" s="29">
         <f t="shared" si="0"/>
         <v>0.86746697853604848</v>
       </c>
-      <c r="AB6" s="31">
+      <c r="AB6" s="29">
         <f t="shared" si="1"/>
         <v>9.3880560334234461E-2</v>
       </c>
-      <c r="AC6" s="31">
+      <c r="AC6" s="29">
         <f t="shared" si="2"/>
         <v>0.6970802919708029</v>
       </c>
-      <c r="AD6" s="31">
+      <c r="AD6" s="29">
         <f t="shared" si="3"/>
         <v>0.16547541693740525</v>
       </c>
     </row>
-    <row r="7" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:30" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="27" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="3">
@@ -44392,10 +44476,10 @@
         <v>14</v>
       </c>
       <c r="R7" s="3"/>
-      <c r="S7" s="29">
+      <c r="S7" s="27">
         <v>0.84393465518951405</v>
       </c>
-      <c r="T7" s="30"/>
+      <c r="T7" s="28"/>
       <c r="U7" s="3" t="s">
         <v>60</v>
       </c>
@@ -44403,37 +44487,37 @@
         <f t="shared" si="4"/>
         <v>29072</v>
       </c>
-      <c r="W7" s="29">
+      <c r="W7" s="27">
         <v>382</v>
       </c>
-      <c r="X7" s="29">
+      <c r="X7" s="27">
         <v>24837</v>
       </c>
-      <c r="Y7" s="29">
+      <c r="Y7" s="27">
         <v>3687</v>
       </c>
-      <c r="Z7" s="29">
+      <c r="Z7" s="27">
         <v>166</v>
       </c>
-      <c r="AA7" s="31">
+      <c r="AA7" s="29">
         <f t="shared" si="0"/>
         <v>0.86746697853604848</v>
       </c>
-      <c r="AB7" s="31">
+      <c r="AB7" s="29">
         <f t="shared" si="1"/>
         <v>9.3880560334234461E-2</v>
       </c>
-      <c r="AC7" s="31">
+      <c r="AC7" s="29">
         <f t="shared" si="2"/>
         <v>0.6970802919708029</v>
       </c>
-      <c r="AD7" s="31">
+      <c r="AD7" s="29">
         <f t="shared" si="3"/>
         <v>0.16547541693740525</v>
       </c>
     </row>
-    <row r="8" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:30" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
         <v>59</v>
       </c>
       <c r="B8" s="3">
@@ -44485,10 +44569,10 @@
         <v>14</v>
       </c>
       <c r="R8" s="3"/>
-      <c r="S8" s="29">
+      <c r="S8" s="27">
         <v>0.84949600696563698</v>
       </c>
-      <c r="T8" s="30"/>
+      <c r="T8" s="28"/>
       <c r="U8" s="3" t="s">
         <v>60</v>
       </c>
@@ -44496,37 +44580,37 @@
         <f t="shared" si="4"/>
         <v>29072</v>
       </c>
-      <c r="W8" s="29">
+      <c r="W8" s="27">
         <v>382</v>
       </c>
-      <c r="X8" s="29">
+      <c r="X8" s="27">
         <v>24837</v>
       </c>
-      <c r="Y8" s="29">
+      <c r="Y8" s="27">
         <v>3687</v>
       </c>
-      <c r="Z8" s="29">
+      <c r="Z8" s="27">
         <v>166</v>
       </c>
-      <c r="AA8" s="31">
+      <c r="AA8" s="29">
         <f t="shared" si="0"/>
         <v>0.86746697853604848</v>
       </c>
-      <c r="AB8" s="31">
+      <c r="AB8" s="29">
         <f t="shared" si="1"/>
         <v>9.3880560334234461E-2</v>
       </c>
-      <c r="AC8" s="31">
+      <c r="AC8" s="29">
         <f t="shared" si="2"/>
         <v>0.6970802919708029</v>
       </c>
-      <c r="AD8" s="31">
+      <c r="AD8" s="29">
         <f t="shared" si="3"/>
         <v>0.16547541693740525</v>
       </c>
     </row>
-    <row r="9" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="29" t="s">
+    <row r="9" spans="1:30" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="27" t="s">
         <v>59</v>
       </c>
       <c r="B9" s="3">
@@ -44578,10 +44662,10 @@
         <v>14</v>
       </c>
       <c r="R9" s="3"/>
-      <c r="S9" s="29">
+      <c r="S9" s="27">
         <v>0.84462982416152899</v>
       </c>
-      <c r="T9" s="30"/>
+      <c r="T9" s="28"/>
       <c r="U9" s="3" t="s">
         <v>60</v>
       </c>
@@ -44589,31 +44673,31 @@
         <f t="shared" si="4"/>
         <v>29072</v>
       </c>
-      <c r="W9" s="29">
+      <c r="W9" s="27">
         <v>382</v>
       </c>
-      <c r="X9" s="29">
+      <c r="X9" s="27">
         <v>24837</v>
       </c>
-      <c r="Y9" s="29">
+      <c r="Y9" s="27">
         <v>3687</v>
       </c>
-      <c r="Z9" s="29">
+      <c r="Z9" s="27">
         <v>166</v>
       </c>
-      <c r="AA9" s="31">
+      <c r="AA9" s="29">
         <f t="shared" si="0"/>
         <v>0.86746697853604848</v>
       </c>
-      <c r="AB9" s="31">
+      <c r="AB9" s="29">
         <f t="shared" si="1"/>
         <v>9.3880560334234461E-2</v>
       </c>
-      <c r="AC9" s="31">
+      <c r="AC9" s="29">
         <f t="shared" si="2"/>
         <v>0.6970802919708029</v>
       </c>
-      <c r="AD9" s="31">
+      <c r="AD9" s="29">
         <f t="shared" si="3"/>
         <v>0.16547541693740525</v>
       </c>
@@ -45068,8 +45152,8 @@
         <v>0.4047878128400435</v>
       </c>
     </row>
-    <row r="15" spans="1:30" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="29" t="s">
+    <row r="15" spans="1:30" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="27" t="s">
         <v>59</v>
       </c>
       <c r="B15" s="3">
@@ -45120,7 +45204,7 @@
       <c r="Q15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V15" s="29">
+      <c r="V15" s="27">
         <f>SUM(W15:Z15)</f>
         <v>29072</v>
       </c>
@@ -45136,25 +45220,25 @@
       <c r="Z15">
         <v>57</v>
       </c>
-      <c r="AA15" s="31">
+      <c r="AA15" s="29">
         <f t="shared" ref="AA15" si="6">(W15+X15)/V15</f>
         <v>0.66586406164006606</v>
       </c>
-      <c r="AB15" s="31">
+      <c r="AB15" s="29">
         <f t="shared" ref="AB15" si="7">IF(AND(W15=0, Y15=0),0,(W15/(W15+Y15)))</f>
         <v>4.8383918013401653E-2</v>
       </c>
-      <c r="AC15" s="31">
+      <c r="AC15" s="29">
         <f t="shared" ref="AC15" si="8">(W15/(W15+Z15))</f>
         <v>0.89598540145985406</v>
       </c>
-      <c r="AD15" s="31">
+      <c r="AD15" s="29">
         <f t="shared" ref="AD15" si="9">IF(AND(AB15=0,AC15=0),0,2*(AB15*AC15)/(AB15+AC15))</f>
         <v>9.1810022438294683E-2</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="V16" s="29">
+      <c r="V16" s="27">
         <f>SUM(W16:Z16)</f>
         <v>29072</v>
       </c>
@@ -45170,25 +45254,25 @@
       <c r="Z16">
         <v>95</v>
       </c>
-      <c r="AA16" s="31">
+      <c r="AA16" s="29">
         <f t="shared" ref="AA16:AA19" si="10">(W16+X16)/V16</f>
         <v>0.6653824986241057</v>
       </c>
-      <c r="AB16" s="31">
+      <c r="AB16" s="29">
         <f t="shared" ref="AB16:AB19" si="11">IF(AND(W16=0, Y16=0),0,(W16/(W16+Y16)))</f>
         <v>4.4913741820345035E-2</v>
       </c>
-      <c r="AC16" s="31">
+      <c r="AC16" s="29">
         <f t="shared" ref="AC16:AC19" si="12">(W16/(W16+Z16))</f>
         <v>0.82664233576642332</v>
       </c>
-      <c r="AD16" s="31">
+      <c r="AD16" s="29">
         <f t="shared" ref="AD16:AD19" si="13">IF(AND(AB16=0,AC16=0),0,2*(AB16*AC16)/(AB16+AC16))</f>
         <v>8.519842016174535E-2</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="V17" s="29">
+      <c r="V17" s="27">
         <f>SUM(W17:Z17)</f>
         <v>29072</v>
       </c>
@@ -45204,25 +45288,25 @@
       <c r="Z17">
         <v>110</v>
       </c>
-      <c r="AA17" s="31">
+      <c r="AA17" s="29">
         <f t="shared" si="10"/>
         <v>0.73242294991744639</v>
       </c>
-      <c r="AB17" s="31">
+      <c r="AB17" s="29">
         <f t="shared" si="11"/>
         <v>5.4027383742444798E-2</v>
       </c>
-      <c r="AC17" s="31">
+      <c r="AC17" s="29">
         <f t="shared" si="12"/>
         <v>0.7992700729927007</v>
       </c>
-      <c r="AD17" s="31">
+      <c r="AD17" s="29">
         <f t="shared" si="13"/>
         <v>0.10121317157712305</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="V18" s="29">
+      <c r="V18" s="27">
         <f>SUM(W18:Z18)</f>
         <v>29072</v>
       </c>
@@ -45238,25 +45322,25 @@
       <c r="Z18">
         <v>156</v>
       </c>
-      <c r="AA18" s="31">
+      <c r="AA18" s="29">
         <f t="shared" si="10"/>
         <v>0.75213263621353876</v>
       </c>
-      <c r="AB18" s="31">
+      <c r="AB18" s="29">
         <f t="shared" si="11"/>
         <v>5.2674012362268208E-2</v>
       </c>
-      <c r="AC18" s="31">
+      <c r="AC18" s="29">
         <f t="shared" si="12"/>
         <v>0.71532846715328469</v>
       </c>
-      <c r="AD18" s="31">
+      <c r="AD18" s="29">
         <f t="shared" si="13"/>
         <v>9.8122653316645797E-2</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="V19" s="29">
+      <c r="V19" s="27">
         <f>SUM(W19:Z19)</f>
         <v>29072</v>
       </c>
@@ -45272,19 +45356,19 @@
       <c r="Z19">
         <v>62</v>
       </c>
-      <c r="AA19" s="31">
+      <c r="AA19" s="29">
         <f t="shared" si="10"/>
         <v>0.69118051733626862</v>
       </c>
-      <c r="AB19" s="31">
+      <c r="AB19" s="29">
         <f t="shared" si="11"/>
         <v>5.1691129546904913E-2</v>
       </c>
-      <c r="AC19" s="31">
+      <c r="AC19" s="29">
         <f t="shared" si="12"/>
         <v>0.88686131386861311</v>
       </c>
-      <c r="AD19" s="31">
+      <c r="AD19" s="29">
         <f t="shared" si="13"/>
         <v>9.7688442211055285E-2</v>
       </c>
@@ -45339,19 +45423,19 @@
       <c r="Z22">
         <v>140</v>
       </c>
-      <c r="AA22" s="31">
+      <c r="AA22" s="29">
         <f t="shared" ref="AA22" si="14">(W22+X22)/V22</f>
         <v>0.80262795817281229</v>
       </c>
-      <c r="AB22" s="31">
+      <c r="AB22" s="29">
         <f t="shared" ref="AB22" si="15">IF(AND(W22=0, Y22=0),0,(W22/(W22+Y22)))</f>
         <v>6.7932067932067935E-2</v>
       </c>
-      <c r="AC22" s="31">
+      <c r="AC22" s="29">
         <f t="shared" ref="AC22" si="16">(W22/(W22+Z22))</f>
         <v>0.74452554744525545</v>
       </c>
-      <c r="AD22" s="31">
+      <c r="AD22" s="29">
         <f t="shared" ref="AD22" si="17">IF(AND(AB22=0,AC22=0),0,2*(AB22*AC22)/(AB22+AC22))</f>
         <v>0.12450411962160514</v>
       </c>
@@ -45379,19 +45463,19 @@
       <c r="Z23">
         <v>117</v>
       </c>
-      <c r="AA23" s="31">
+      <c r="AA23" s="29">
         <f t="shared" ref="AA23" si="18">(W23+X23)/V23</f>
         <v>0.78143918547055591</v>
       </c>
-      <c r="AB23" s="31">
+      <c r="AB23" s="29">
         <f t="shared" ref="AB23" si="19">IF(AND(W23=0, Y23=0),0,(W23/(W23+Y23)))</f>
         <v>6.4637072585482902E-2</v>
       </c>
-      <c r="AC23" s="31">
+      <c r="AC23" s="29">
         <f t="shared" ref="AC23" si="20">(W23/(W23+Z23))</f>
         <v>0.78649635036496346</v>
       </c>
-      <c r="AD23" s="31">
+      <c r="AD23" s="29">
         <f t="shared" ref="AD23" si="21">IF(AND(AB23=0,AC23=0),0,2*(AB23*AC23)/(AB23+AC23))</f>
         <v>0.11945676274944568</v>
       </c>
@@ -45419,19 +45503,19 @@
       <c r="Z24">
         <v>166</v>
       </c>
-      <c r="AA24" s="31">
+      <c r="AA24" s="29">
         <f t="shared" ref="AA24" si="22">(W24+X24)/V24</f>
         <v>0.8424600990643919</v>
       </c>
-      <c r="AB24" s="31">
+      <c r="AB24" s="29">
         <f t="shared" ref="AB24" si="23">IF(AND(W24=0, Y24=0),0,(W24/(W24+Y24)))</f>
         <v>7.9649708090075058E-2</v>
       </c>
-      <c r="AC24" s="31">
+      <c r="AC24" s="29">
         <f t="shared" ref="AC24" si="24">(W24/(W24+Z24))</f>
         <v>0.6970802919708029</v>
       </c>
-      <c r="AD24" s="31">
+      <c r="AD24" s="29">
         <f t="shared" ref="AD24" si="25">IF(AND(AB24=0,AC24=0),0,2*(AB24*AC24)/(AB24+AC24))</f>
         <v>0.1429640718562874</v>
       </c>
@@ -45453,19 +45537,19 @@
       <c r="Z25">
         <v>215</v>
       </c>
-      <c r="AA25" s="31">
+      <c r="AA25" s="29">
         <f t="shared" ref="AA25:AA26" si="26">(W25+X25)/V25</f>
         <v>0.88752063841496975</v>
       </c>
-      <c r="AB25" s="31">
+      <c r="AB25" s="29">
         <f t="shared" ref="AB25:AB26" si="27">IF(AND(W25=0, Y25=0),0,(W25/(W25+Y25)))</f>
         <v>9.8288075560802837E-2</v>
       </c>
-      <c r="AC25" s="31">
+      <c r="AC25" s="29">
         <f t="shared" ref="AC25:AC26" si="28">(W25/(W25+Z25))</f>
         <v>0.60766423357664234</v>
       </c>
-      <c r="AD25" s="31">
+      <c r="AD25" s="29">
         <f t="shared" ref="AD25:AD26" si="29">IF(AND(AB25=0,AC25=0),0,2*(AB25*AC25)/(AB25+AC25))</f>
         <v>0.16920731707317072</v>
       </c>
@@ -45487,19 +45571,19 @@
       <c r="Z26">
         <v>262</v>
       </c>
-      <c r="AA26" s="31">
+      <c r="AA26" s="29">
         <f t="shared" si="26"/>
         <v>0.78350302696752894</v>
       </c>
-      <c r="AB26" s="31">
+      <c r="AB26" s="29">
         <f t="shared" si="27"/>
         <v>4.5267489711934158E-2</v>
       </c>
-      <c r="AC26" s="31">
+      <c r="AC26" s="29">
         <f t="shared" si="28"/>
         <v>0.52189781021897808</v>
       </c>
-      <c r="AD26" s="31">
+      <c r="AD26" s="29">
         <f t="shared" si="29"/>
         <v>8.3309059131954563E-2</v>
       </c>
@@ -45511,10 +45595,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EC0A1CD-5C2D-4A58-A5B1-71EA28D777A4}">
-  <dimension ref="A4:X27"/>
+  <dimension ref="A4:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+      <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -45526,6 +45610,9 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
       <c r="C4" t="s">
         <v>51</v>
       </c>
@@ -45556,36 +45643,36 @@
       <c r="L4" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="36">
-        <f>AVERAGE(Q6:Q8)</f>
+      <c r="Q4" s="34">
+        <f t="shared" ref="Q4:W4" si="0">AVERAGE(Q6:Q8)</f>
         <v>461.66666666666669</v>
       </c>
-      <c r="R4" s="36">
-        <f>AVERAGE(R6:R8)</f>
+      <c r="R4" s="34">
+        <f t="shared" si="0"/>
         <v>27304.666666666668</v>
       </c>
-      <c r="S4" s="36">
-        <f>AVERAGE(S6:S8)</f>
+      <c r="S4" s="34">
+        <f t="shared" si="0"/>
         <v>1219.3333333333333</v>
       </c>
-      <c r="T4" s="36">
-        <f>AVERAGE(T6:T8)</f>
+      <c r="T4" s="34">
+        <f t="shared" si="0"/>
         <v>86.333333333333329</v>
       </c>
-      <c r="U4" s="35">
-        <f>AVERAGE(U6:U8)</f>
+      <c r="U4" s="33">
+        <f t="shared" si="0"/>
         <v>0.95508851586864785</v>
       </c>
-      <c r="V4" s="35">
-        <f>AVERAGE(V6:V8)</f>
+      <c r="V4" s="33">
+        <f t="shared" si="0"/>
         <v>0.27583167616825027</v>
       </c>
-      <c r="W4" s="35">
-        <f>AVERAGE(W6:W8)</f>
+      <c r="W4" s="33">
+        <f t="shared" si="0"/>
         <v>0.84245742092457421</v>
       </c>
       <c r="X4" s="21">
-        <f t="shared" ref="X4:X6" si="0">IF(AND(V4=0,W4=0),0,2*(V4*W4)/(V4+W4))</f>
+        <f t="shared" ref="X4:X6" si="1">IF(AND(V4=0,W4=0),0,2*(V4*W4)/(V4+W4))</f>
         <v>0.41559278923152704</v>
       </c>
     </row>
@@ -45599,10 +45686,10 @@
       <c r="C5">
         <v>7</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="32">
         <v>22</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="32">
         <v>100</v>
       </c>
       <c r="F5" t="s">
@@ -45652,10 +45739,10 @@
       <c r="C6">
         <v>7</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="32">
         <v>22</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="32">
         <v>100</v>
       </c>
       <c r="F6" t="s">
@@ -45684,19 +45771,19 @@
         <v>99</v>
       </c>
       <c r="U6" s="21">
-        <f t="shared" ref="U6" si="1">(Q6+R6)/P6</f>
+        <f t="shared" ref="U6" si="2">(Q6+R6)/P6</f>
         <v>0.95841359383599345</v>
       </c>
       <c r="V6" s="21">
-        <f t="shared" ref="V6" si="2">IF(AND(Q6=0, S6=0),0,(Q6/(Q6+S6)))</f>
+        <f t="shared" ref="V6" si="3">IF(AND(Q6=0, S6=0),0,(Q6/(Q6+S6)))</f>
         <v>0.28800513149454776</v>
       </c>
       <c r="W6" s="21">
-        <f t="shared" ref="W6" si="3">(Q6/(Q6+T6))</f>
+        <f t="shared" ref="W6" si="4">(Q6/(Q6+T6))</f>
         <v>0.81934306569343063</v>
       </c>
       <c r="X6" s="21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.42619838633127666</v>
       </c>
     </row>
@@ -45713,7 +45800,7 @@
       <c r="D7">
         <v>22</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="32">
         <v>100</v>
       </c>
       <c r="F7" t="s">
@@ -45742,19 +45829,19 @@
         <v>82</v>
       </c>
       <c r="U7" s="21">
-        <f t="shared" ref="U7:U8" si="4">(Q7+R7)/P7</f>
+        <f t="shared" ref="U7:U8" si="5">(Q7+R7)/P7</f>
         <v>0.94960787011557513</v>
       </c>
       <c r="V7" s="21">
-        <f t="shared" ref="V7:V8" si="5">IF(AND(Q7=0, S7=0),0,(Q7/(Q7+S7)))</f>
+        <f t="shared" ref="V7:V8" si="6">IF(AND(Q7=0, S7=0),0,(Q7/(Q7+S7)))</f>
         <v>0.25202812330989727</v>
       </c>
       <c r="W7" s="21">
-        <f t="shared" ref="W7:W8" si="6">(Q7/(Q7+T7))</f>
+        <f t="shared" ref="W7:W8" si="7">(Q7/(Q7+T7))</f>
         <v>0.85036496350364965</v>
       </c>
       <c r="X7" s="21">
-        <f t="shared" ref="X7:X8" si="7">IF(AND(V7=0,W7=0),0,2*(V7*W7)/(V7+W7))</f>
+        <f t="shared" ref="X7:X8" si="8">IF(AND(V7=0,W7=0),0,2*(V7*W7)/(V7+W7))</f>
         <v>0.38881935753024616</v>
       </c>
     </row>
@@ -45771,7 +45858,7 @@
       <c r="D8">
         <v>55</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="32">
         <v>100</v>
       </c>
       <c r="F8" t="s">
@@ -45800,19 +45887,19 @@
         <v>78</v>
       </c>
       <c r="U8" s="21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.9572440836543753</v>
       </c>
       <c r="V8" s="21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.28746177370030579</v>
       </c>
       <c r="W8" s="21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.85766423357664234</v>
       </c>
       <c r="X8" s="21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.43060009161704071</v>
       </c>
     </row>
@@ -45829,7 +45916,7 @@
       <c r="D9">
         <v>55</v>
       </c>
-      <c r="E9" s="34">
+      <c r="E9" s="32">
         <v>100</v>
       </c>
       <c r="F9" t="s">
@@ -45858,19 +45945,19 @@
         <v>100</v>
       </c>
       <c r="U9" s="21">
-        <f t="shared" ref="U9:U10" si="8">(Q9+R9)/P9</f>
+        <f t="shared" ref="U9:U14" si="9">(Q9+R9)/P9</f>
         <v>0.97065905338470004</v>
       </c>
       <c r="V9" s="21">
-        <f t="shared" ref="V9:V10" si="9">IF(AND(Q9=0, S9=0),0,(Q9/(Q9+S9)))</f>
+        <f t="shared" ref="V9:V14" si="10">IF(AND(Q9=0, S9=0),0,(Q9/(Q9+S9)))</f>
         <v>0.37302248126561199</v>
       </c>
       <c r="W9" s="21">
-        <f t="shared" ref="W9:W10" si="10">(Q9/(Q9+T9))</f>
+        <f t="shared" ref="W9:W14" si="11">(Q9/(Q9+T9))</f>
         <v>0.81751824817518248</v>
       </c>
       <c r="X9" s="21">
-        <f t="shared" ref="X9:X10" si="11">IF(AND(V9=0,W9=0),0,2*(V9*W9)/(V9+W9))</f>
+        <f t="shared" ref="X9:X14" si="12">IF(AND(V9=0,W9=0),0,2*(V9*W9)/(V9+W9))</f>
         <v>0.5122927387078331</v>
       </c>
     </row>
@@ -45887,7 +45974,7 @@
       <c r="D10">
         <v>55</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="32">
         <v>100</v>
       </c>
       <c r="F10" t="s">
@@ -45916,19 +46003,19 @@
         <v>63</v>
       </c>
       <c r="U10" s="21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.97323885525591636</v>
       </c>
       <c r="V10" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.40416666666666667</v>
       </c>
       <c r="W10" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.88503649635036497</v>
       </c>
       <c r="X10" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.55491990846681927</v>
       </c>
     </row>
@@ -45945,7 +46032,7 @@
       <c r="D11">
         <v>55</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="32">
         <v>100</v>
       </c>
       <c r="F11" t="s">
@@ -45956,6 +46043,37 @@
       </c>
       <c r="H11">
         <v>0.2</v>
+      </c>
+      <c r="P11">
+        <v>29072</v>
+      </c>
+      <c r="Q11">
+        <v>464</v>
+      </c>
+      <c r="R11">
+        <v>27600</v>
+      </c>
+      <c r="S11">
+        <v>924</v>
+      </c>
+      <c r="T11">
+        <v>84</v>
+      </c>
+      <c r="U11" s="21">
+        <f t="shared" si="9"/>
+        <v>0.96532746285085302</v>
+      </c>
+      <c r="V11" s="21">
+        <f t="shared" si="10"/>
+        <v>0.33429394812680113</v>
+      </c>
+      <c r="W11" s="21">
+        <f t="shared" si="11"/>
+        <v>0.84671532846715325</v>
+      </c>
+      <c r="X11" s="21">
+        <f t="shared" si="12"/>
+        <v>0.47933884297520662</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
@@ -45971,7 +46089,7 @@
       <c r="D12">
         <v>55</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="32">
         <v>100</v>
       </c>
       <c r="F12" t="s">
@@ -45982,6 +46100,37 @@
       </c>
       <c r="H12">
         <v>0.24</v>
+      </c>
+      <c r="P12">
+        <v>29072</v>
+      </c>
+      <c r="Q12">
+        <v>483</v>
+      </c>
+      <c r="R12">
+        <v>27622</v>
+      </c>
+      <c r="S12">
+        <v>902</v>
+      </c>
+      <c r="T12">
+        <v>65</v>
+      </c>
+      <c r="U12" s="21">
+        <f t="shared" si="9"/>
+        <v>0.9667377545404513</v>
+      </c>
+      <c r="V12" s="21">
+        <f t="shared" si="10"/>
+        <v>0.34873646209386283</v>
+      </c>
+      <c r="W12" s="21">
+        <f t="shared" si="11"/>
+        <v>0.88138686131386856</v>
+      </c>
+      <c r="X12" s="21">
+        <f t="shared" si="12"/>
+        <v>0.49974133471288157</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
@@ -45997,7 +46146,7 @@
       <c r="D13">
         <v>55</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="32">
         <v>100</v>
       </c>
       <c r="F13" t="s">
@@ -46008,6 +46157,37 @@
       </c>
       <c r="H13">
         <v>0.23</v>
+      </c>
+      <c r="P13">
+        <v>29072</v>
+      </c>
+      <c r="Q13">
+        <v>460</v>
+      </c>
+      <c r="R13">
+        <v>27320</v>
+      </c>
+      <c r="S13">
+        <v>1204</v>
+      </c>
+      <c r="T13">
+        <v>88</v>
+      </c>
+      <c r="U13" s="21">
+        <f t="shared" si="9"/>
+        <v>0.95555861309851409</v>
+      </c>
+      <c r="V13" s="21">
+        <f t="shared" si="10"/>
+        <v>0.27644230769230771</v>
+      </c>
+      <c r="W13" s="21">
+        <f t="shared" si="11"/>
+        <v>0.83941605839416056</v>
+      </c>
+      <c r="X13" s="21">
+        <f t="shared" si="12"/>
+        <v>0.41591320072332733</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
@@ -46023,7 +46203,7 @@
       <c r="D14">
         <v>55</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="32">
         <v>100</v>
       </c>
       <c r="F14" t="s">
@@ -46034,6 +46214,37 @@
       </c>
       <c r="H14">
         <v>0.09</v>
+      </c>
+      <c r="P14">
+        <v>29072</v>
+      </c>
+      <c r="Q14">
+        <v>463</v>
+      </c>
+      <c r="R14">
+        <v>27408</v>
+      </c>
+      <c r="S14">
+        <v>1116</v>
+      </c>
+      <c r="T14">
+        <v>85</v>
+      </c>
+      <c r="U14" s="21">
+        <f t="shared" si="9"/>
+        <v>0.9586887727022565</v>
+      </c>
+      <c r="V14" s="21">
+        <f t="shared" si="10"/>
+        <v>0.29322355921469284</v>
+      </c>
+      <c r="W14" s="21">
+        <f t="shared" si="11"/>
+        <v>0.8448905109489051</v>
+      </c>
+      <c r="X14" s="21">
+        <f t="shared" si="12"/>
+        <v>0.4353549600376117</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
@@ -46049,7 +46260,7 @@
       <c r="D15">
         <v>55</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="32">
         <v>100</v>
       </c>
       <c r="F15" t="s">
@@ -46060,6 +46271,37 @@
       </c>
       <c r="H15">
         <v>0.14000000000000001</v>
+      </c>
+      <c r="P15">
+        <v>29072</v>
+      </c>
+      <c r="Q15">
+        <v>298</v>
+      </c>
+      <c r="R15">
+        <v>22084</v>
+      </c>
+      <c r="S15">
+        <v>6440</v>
+      </c>
+      <c r="T15">
+        <v>250</v>
+      </c>
+      <c r="U15" s="21">
+        <f t="shared" ref="U15" si="13">(Q15+R15)/P15</f>
+        <v>0.76988167308750688</v>
+      </c>
+      <c r="V15" s="21">
+        <f t="shared" ref="V15" si="14">IF(AND(Q15=0, S15=0),0,(Q15/(Q15+S15)))</f>
+        <v>4.4226773523300685E-2</v>
+      </c>
+      <c r="W15" s="21">
+        <f t="shared" ref="W15" si="15">(Q15/(Q15+T15))</f>
+        <v>0.54379562043795615</v>
+      </c>
+      <c r="X15" s="21">
+        <f t="shared" ref="X15" si="16">IF(AND(V15=0,W15=0),0,2*(V15*W15)/(V15+W15))</f>
+        <v>8.1800713697502053E-2</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.35">
@@ -46075,7 +46317,7 @@
       <c r="D16">
         <v>55</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="32">
         <v>100</v>
       </c>
       <c r="F16" t="s">
@@ -46087,8 +46329,39 @@
       <c r="H16">
         <v>0.18</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P16">
+        <v>29072</v>
+      </c>
+      <c r="Q16">
+        <v>324</v>
+      </c>
+      <c r="R16">
+        <v>26927</v>
+      </c>
+      <c r="S16">
+        <v>1597</v>
+      </c>
+      <c r="T16">
+        <v>224</v>
+      </c>
+      <c r="U16" s="21">
+        <f t="shared" ref="U16" si="17">(Q16+R16)/P16</f>
+        <v>0.93736241056686842</v>
+      </c>
+      <c r="V16" s="21">
+        <f t="shared" ref="V16" si="18">IF(AND(Q16=0, S16=0),0,(Q16/(Q16+S16)))</f>
+        <v>0.16866215512753774</v>
+      </c>
+      <c r="W16" s="21">
+        <f t="shared" ref="W16" si="19">(Q16/(Q16+T16))</f>
+        <v>0.59124087591240881</v>
+      </c>
+      <c r="X16" s="21">
+        <f t="shared" ref="X16" si="20">IF(AND(V16=0,W16=0),0,2*(V16*W16)/(V16+W16))</f>
+        <v>0.26245443499392462</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>61</v>
       </c>
@@ -46101,7 +46374,7 @@
       <c r="D17">
         <v>55</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="32">
         <v>100</v>
       </c>
       <c r="F17" t="s">
@@ -46113,8 +46386,39 @@
       <c r="H17">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P17">
+        <v>29072</v>
+      </c>
+      <c r="Q17">
+        <v>438</v>
+      </c>
+      <c r="R17">
+        <v>27058</v>
+      </c>
+      <c r="S17">
+        <v>1466</v>
+      </c>
+      <c r="T17">
+        <v>110</v>
+      </c>
+      <c r="U17" s="21">
+        <f t="shared" ref="U17" si="21">(Q17+R17)/P17</f>
+        <v>0.94578976334617504</v>
+      </c>
+      <c r="V17" s="21">
+        <f t="shared" ref="V17" si="22">IF(AND(Q17=0, S17=0),0,(Q17/(Q17+S17)))</f>
+        <v>0.23004201680672268</v>
+      </c>
+      <c r="W17" s="21">
+        <f t="shared" ref="W17" si="23">(Q17/(Q17+T17))</f>
+        <v>0.7992700729927007</v>
+      </c>
+      <c r="X17" s="21">
+        <f t="shared" ref="X17" si="24">IF(AND(V17=0,W17=0),0,2*(V17*W17)/(V17+W17))</f>
+        <v>0.35725938009787922</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -46127,7 +46431,7 @@
       <c r="D18">
         <v>55</v>
       </c>
-      <c r="E18" s="34">
+      <c r="E18" s="32">
         <v>100</v>
       </c>
       <c r="F18" t="s">
@@ -46139,8 +46443,40 @@
       <c r="H18">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P18">
+        <f>SUM(Q18:T18)</f>
+        <v>57048</v>
+      </c>
+      <c r="Q18">
+        <v>28203</v>
+      </c>
+      <c r="R18">
+        <v>27683</v>
+      </c>
+      <c r="S18">
+        <v>841</v>
+      </c>
+      <c r="T18">
+        <v>321</v>
+      </c>
+      <c r="U18" s="21">
+        <f t="shared" ref="U18" si="25">(Q18+R18)/P18</f>
+        <v>0.979631187771701</v>
+      </c>
+      <c r="V18" s="21">
+        <f t="shared" ref="V18" si="26">IF(AND(Q18=0, S18=0),0,(Q18/(Q18+S18)))</f>
+        <v>0.97104393334251482</v>
+      </c>
+      <c r="W18" s="21">
+        <f t="shared" ref="W18" si="27">(Q18/(Q18+T18))</f>
+        <v>0.98874631888935638</v>
+      </c>
+      <c r="X18" s="21">
+        <f t="shared" ref="X18" si="28">IF(AND(V18=0,W18=0),0,2*(V18*W18)/(V18+W18))</f>
+        <v>0.97981517509727623</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>61</v>
       </c>
@@ -46153,7 +46489,7 @@
       <c r="D19">
         <v>25</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="32">
         <v>100</v>
       </c>
       <c r="F19" t="s">
@@ -46165,8 +46501,40 @@
       <c r="H19">
         <v>0.14000000000000001</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P19">
+        <f>SUM(Q19:T19)</f>
+        <v>57048</v>
+      </c>
+      <c r="Q19">
+        <v>27925</v>
+      </c>
+      <c r="R19">
+        <v>26920</v>
+      </c>
+      <c r="S19">
+        <v>1604</v>
+      </c>
+      <c r="T19">
+        <v>599</v>
+      </c>
+      <c r="U19" s="21">
+        <f t="shared" ref="U19:U21" si="29">(Q19+R19)/P19</f>
+        <v>0.96138339643808723</v>
+      </c>
+      <c r="V19" s="21">
+        <f t="shared" ref="V19:V21" si="30">IF(AND(Q19=0, S19=0),0,(Q19/(Q19+S19)))</f>
+        <v>0.94568051745741477</v>
+      </c>
+      <c r="W19" s="21">
+        <f t="shared" ref="W19:W21" si="31">(Q19/(Q19+T19))</f>
+        <v>0.97900014023278648</v>
+      </c>
+      <c r="X19" s="21">
+        <f t="shared" ref="X19:X21" si="32">IF(AND(V19=0,W19=0),0,2*(V19*W19)/(V19+W19))</f>
+        <v>0.96205191807486257</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>61</v>
       </c>
@@ -46179,7 +46547,7 @@
       <c r="D20">
         <v>75</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="32">
         <v>100</v>
       </c>
       <c r="F20" t="s">
@@ -46191,8 +46559,40 @@
       <c r="H20">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P20">
+        <f>SUM(Q20:T20)</f>
+        <v>57048</v>
+      </c>
+      <c r="Q20">
+        <v>27429</v>
+      </c>
+      <c r="R20">
+        <v>26457</v>
+      </c>
+      <c r="S20">
+        <v>2067</v>
+      </c>
+      <c r="T20">
+        <v>1095</v>
+      </c>
+      <c r="U20" s="21">
+        <f t="shared" si="29"/>
+        <v>0.94457299116533444</v>
+      </c>
+      <c r="V20" s="21">
+        <f t="shared" si="30"/>
+        <v>0.9299227013832384</v>
+      </c>
+      <c r="W20" s="21">
+        <f t="shared" si="31"/>
+        <v>0.96161127471602859</v>
+      </c>
+      <c r="X20" s="21">
+        <f t="shared" si="32"/>
+        <v>0.94550155118924495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -46205,7 +46605,7 @@
       <c r="D21">
         <v>100</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="32">
         <v>100</v>
       </c>
       <c r="F21" t="s">
@@ -46217,8 +46617,40 @@
       <c r="H21">
         <v>0.37</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="P21">
+        <f>SUM(Q21:T21)</f>
+        <v>29072</v>
+      </c>
+      <c r="Q21">
+        <v>64</v>
+      </c>
+      <c r="R21">
+        <v>28501</v>
+      </c>
+      <c r="S21">
+        <v>23</v>
+      </c>
+      <c r="T21">
+        <v>484</v>
+      </c>
+      <c r="U21" s="21">
+        <f t="shared" si="29"/>
+        <v>0.98256053935057786</v>
+      </c>
+      <c r="V21" s="21">
+        <f t="shared" si="30"/>
+        <v>0.73563218390804597</v>
+      </c>
+      <c r="W21" s="21">
+        <f t="shared" si="31"/>
+        <v>0.11678832116788321</v>
+      </c>
+      <c r="X21" s="21">
+        <f t="shared" si="32"/>
+        <v>0.2015748031496063</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -46231,7 +46663,7 @@
       <c r="D22">
         <v>75</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="32">
         <v>100</v>
       </c>
       <c r="F22" t="s">
@@ -46244,7 +46676,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B23">
         <v>1096</v>
       </c>
@@ -46254,7 +46686,7 @@
       <c r="D23">
         <v>75</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="32">
         <v>100</v>
       </c>
       <c r="F23" t="s">
@@ -46267,7 +46699,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B24">
         <v>28524</v>
       </c>
@@ -46277,7 +46709,7 @@
       <c r="D24">
         <v>75</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="32">
         <v>1000</v>
       </c>
       <c r="F24" t="s">
@@ -46305,7 +46737,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B25">
         <v>28524</v>
       </c>
@@ -46315,7 +46747,7 @@
       <c r="D25">
         <v>100</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="32">
         <v>200</v>
       </c>
       <c r="F25" t="s">
@@ -46327,20 +46759,20 @@
       <c r="H25">
         <v>0.42</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="34">
         <v>461.66666666666669</v>
       </c>
-      <c r="J25" s="36">
+      <c r="J25" s="34">
         <v>27304.666666666668</v>
       </c>
-      <c r="K25" s="36">
+      <c r="K25" s="34">
         <v>1219.3333333333333</v>
       </c>
-      <c r="L25" s="36">
+      <c r="L25" s="34">
         <v>86.333333333333329</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="B26">
         <v>28524</v>
       </c>
@@ -46350,7 +46782,7 @@
       <c r="D26">
         <v>100</v>
       </c>
-      <c r="E26" s="34">
+      <c r="E26" s="32">
         <v>600</v>
       </c>
       <c r="F26" t="s">
@@ -46375,43 +46807,458 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B27">
+    <row r="27" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="27">
         <v>28524</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="27">
         <v>5</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="27">
         <v>100</v>
       </c>
-      <c r="E27" s="34">
+      <c r="E27" s="35">
         <v>1000</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="27">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="27">
         <v>485</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="27">
         <v>27809</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="27">
         <v>715</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="27">
         <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28">
+        <v>28524</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>100</v>
+      </c>
+      <c r="E28" s="32">
+        <v>600</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28">
+        <v>0.48</v>
+      </c>
+      <c r="I28">
+        <v>464</v>
+      </c>
+      <c r="J28">
+        <v>27600</v>
+      </c>
+      <c r="K28">
+        <v>924</v>
+      </c>
+      <c r="L28">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29">
+        <v>28524</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>150</v>
+      </c>
+      <c r="E29" s="32">
+        <v>1000</v>
+      </c>
+      <c r="F29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>69</v>
+      </c>
+      <c r="H29">
+        <v>0.5</v>
+      </c>
+      <c r="I29">
+        <v>483</v>
+      </c>
+      <c r="J29">
+        <v>27622</v>
+      </c>
+      <c r="K29">
+        <v>902</v>
+      </c>
+      <c r="L29">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>28524</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30" s="32">
+        <v>2000</v>
+      </c>
+      <c r="F30" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30">
+        <v>0.42</v>
+      </c>
+      <c r="I30">
+        <v>460</v>
+      </c>
+      <c r="J30">
+        <v>27320</v>
+      </c>
+      <c r="K30">
+        <v>1204</v>
+      </c>
+      <c r="L30">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>28524</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>100</v>
+      </c>
+      <c r="E31" s="32">
+        <v>1000</v>
+      </c>
+      <c r="F31" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31">
+        <v>0.44</v>
+      </c>
+      <c r="I31">
+        <v>463</v>
+      </c>
+      <c r="J31">
+        <v>27408</v>
+      </c>
+      <c r="K31">
+        <v>1116</v>
+      </c>
+      <c r="L31">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>28524</v>
+      </c>
+      <c r="C32">
+        <v>5</v>
+      </c>
+      <c r="D32">
+        <v>100</v>
+      </c>
+      <c r="E32" s="32">
+        <v>1000</v>
+      </c>
+      <c r="F32" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32">
+        <v>0.08</v>
+      </c>
+      <c r="I32">
+        <v>298</v>
+      </c>
+      <c r="J32">
+        <v>22084</v>
+      </c>
+      <c r="K32">
+        <v>6440</v>
+      </c>
+      <c r="L32">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>28524</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33" s="32">
+        <v>1000</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33">
+        <v>0.26</v>
+      </c>
+      <c r="I33">
+        <v>324</v>
+      </c>
+      <c r="J33">
+        <v>26927</v>
+      </c>
+      <c r="K33">
+        <v>1597</v>
+      </c>
+      <c r="L33">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>28524</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>150</v>
+      </c>
+      <c r="E34" s="32">
+        <v>100</v>
+      </c>
+      <c r="F34" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" t="s">
+        <v>69</v>
+      </c>
+      <c r="H34">
+        <v>0.36</v>
+      </c>
+      <c r="I34">
+        <v>438</v>
+      </c>
+      <c r="J34">
+        <v>27058</v>
+      </c>
+      <c r="K34">
+        <v>1466</v>
+      </c>
+      <c r="L34">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>28524</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35" s="32">
+        <v>1000</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35">
+        <v>0.98</v>
+      </c>
+      <c r="I35">
+        <v>28203</v>
+      </c>
+      <c r="J35">
+        <v>27683</v>
+      </c>
+      <c r="K35">
+        <v>841</v>
+      </c>
+      <c r="L35">
+        <v>321</v>
+      </c>
+      <c r="M35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>28524</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>100</v>
+      </c>
+      <c r="E36" s="32">
+        <v>100</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36">
+        <v>0.96</v>
+      </c>
+      <c r="I36">
+        <v>27925</v>
+      </c>
+      <c r="J36">
+        <v>26920</v>
+      </c>
+      <c r="K36">
+        <v>1604</v>
+      </c>
+      <c r="L36">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>28524</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>55</v>
+      </c>
+      <c r="E37" s="32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="Q41" s="39" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="Q42" s="39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="Q43" s="39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="Q44" s="39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="Q45" s="39" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491CD696-5280-42D9-9EDC-A149406060E4}">
+  <dimension ref="D4:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9:D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="E4" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D5" s="36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D6" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D9" s="36" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D10" s="36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>